--- a/BackTest/2019-11-02 BackTest OGO.xlsx
+++ b/BackTest/2019-11-02 BackTest OGO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.20000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>26.52</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-5.88235294117652</v>
+      </c>
       <c r="L13" t="n">
         <v>26.51</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>26.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>26.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.400000000000009</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-5.882352941176324</v>
+      </c>
       <c r="L16" t="n">
         <v>26.49</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.500000000000011</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-42.85714285714278</v>
+      </c>
       <c r="L17" t="n">
         <v>26.47000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.800000000000011</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7.692307692307776</v>
+      </c>
       <c r="L18" t="n">
         <v>26.44</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.100000000000012</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-50</v>
+      </c>
       <c r="L19" t="n">
         <v>26.42000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.200000000000014</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-19.99999999999986</v>
+      </c>
       <c r="L20" t="n">
         <v>26.37</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.300000000000015</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.27272727272722</v>
+      </c>
       <c r="L21" t="n">
         <v>26.34</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.300000000000015</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-19.99999999999986</v>
+      </c>
       <c r="L22" t="n">
         <v>26.31</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.300000000000015</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.11111111111108</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L23" t="n">
         <v>26.29</v>
@@ -1466,7 +1488,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571418</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L24" t="n">
         <v>26.26000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111097</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L25" t="n">
         <v>26.23000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.142857142857098</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>26.22000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>3.900000000000009</v>
       </c>
       <c r="K27" t="n">
-        <v>-18.7499999999999</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L27" t="n">
         <v>26.18000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>-31.03448275862074</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L28" t="n">
         <v>26.12000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>-25.92592592592591</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L29" t="n">
         <v>26.07000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>-36.00000000000014</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L30" t="n">
         <v>26.03000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>-27.27272727272739</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L31" t="n">
         <v>26.00000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K32" t="n">
-        <v>-21.73913043478263</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L32" t="n">
         <v>25.98000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.18181818181815</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L33" t="n">
         <v>25.96000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.18181818181815</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L34" t="n">
         <v>25.95000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>4.700000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>25.96</v>
@@ -2064,7 +2086,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.00000000000005</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>25.94</v>
@@ -2115,7 +2137,7 @@
         <v>5.000000000000007</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>25.95</v>
@@ -2166,7 +2188,7 @@
         <v>5.000000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>-27.27272727272739</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L38" t="n">
         <v>25.95</v>
@@ -2217,7 +2239,7 @@
         <v>5.300000000000008</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>26</v>
@@ -2268,7 +2290,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L40" t="n">
         <v>26.04</v>
@@ -2319,7 +2341,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K41" t="n">
-        <v>13.04347826086963</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L41" t="n">
         <v>26.1</v>
@@ -2370,7 +2392,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>13.04347826086963</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L42" t="n">
         <v>26.15000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K43" t="n">
-        <v>25.92592592592597</v>
+        <v>59.99999999999991</v>
       </c>
       <c r="L43" t="n">
         <v>26.24</v>
@@ -2472,7 +2494,7 @@
         <v>6.400000000000006</v>
       </c>
       <c r="K44" t="n">
-        <v>13.33333333333332</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L44" t="n">
         <v>26.29</v>
@@ -2523,7 +2545,7 @@
         <v>6.400000000000006</v>
       </c>
       <c r="K45" t="n">
-        <v>13.33333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>26.32</v>
@@ -2574,7 +2596,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K46" t="n">
-        <v>13.33333333333342</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L46" t="n">
         <v>26.38000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K47" t="n">
-        <v>25.92592592592591</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L47" t="n">
         <v>26.44000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L49" t="n">
         <v>26.53000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>6.70000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>21.73913043478257</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L50" t="n">
         <v>26.54000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>6.70000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>21.73913043478257</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L51" t="n">
         <v>26.53000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K52" t="n">
-        <v>13.04347826086959</v>
+        <v>-74.99999999999967</v>
       </c>
       <c r="L52" t="n">
         <v>26.51000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666662</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L53" t="n">
         <v>26.46000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>7.000000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>26.46000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>4.000000000000057</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L55" t="n">
         <v>26.44000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>26.43000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K57" t="n">
-        <v>28.00000000000011</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L57" t="n">
         <v>26.44000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K58" t="n">
-        <v>28.00000000000011</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L58" t="n">
         <v>26.45000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K59" t="n">
-        <v>18.18181818181829</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L59" t="n">
         <v>26.46000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571433</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L60" t="n">
         <v>26.48000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K61" t="n">
-        <v>5.263157894736921</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L61" t="n">
         <v>26.50000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L62" t="n">
         <v>26.52000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>4.761904761904826</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L63" t="n">
         <v>26.58000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K64" t="n">
-        <v>29.41176470588231</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L64" t="n">
         <v>26.63000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K65" t="n">
-        <v>29.41176470588231</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L65" t="n">
         <v>26.70000000000002</v>
@@ -3594,7 +3616,7 @@
         <v>8.300000000000008</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111107</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L66" t="n">
         <v>26.73000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>22.22222222222218</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L67" t="n">
         <v>26.76000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>22.22222222222218</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L68" t="n">
         <v>26.79000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K69" t="n">
-        <v>22.22222222222218</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L69" t="n">
         <v>26.82000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>33.33333333333346</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L70" t="n">
         <v>26.86000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K71" t="n">
-        <v>50.00000000000014</v>
+        <v>73.33333333333343</v>
       </c>
       <c r="L71" t="n">
         <v>26.96000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>9.200000000000006</v>
       </c>
       <c r="K72" t="n">
-        <v>58.3333333333333</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L72" t="n">
         <v>27.08000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>77.77777777777779</v>
+        <v>87.87878787878792</v>
       </c>
       <c r="L73" t="n">
         <v>27.37</v>
@@ -4002,7 +4024,7 @@
         <v>11.8</v>
       </c>
       <c r="K74" t="n">
-        <v>62.50000000000004</v>
+        <v>67.56756756756765</v>
       </c>
       <c r="L74" t="n">
         <v>27.62</v>
@@ -4053,7 +4075,7 @@
         <v>13</v>
       </c>
       <c r="K75" t="n">
-        <v>34.48275862068967</v>
+        <v>31.91489361702131</v>
       </c>
       <c r="L75" t="n">
         <v>27.75000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>13.3</v>
       </c>
       <c r="K76" t="n">
-        <v>35.59322033898308</v>
+        <v>34.69387755102048</v>
       </c>
       <c r="L76" t="n">
         <v>27.93000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>13.6</v>
       </c>
       <c r="K77" t="n">
-        <v>37.70491803278687</v>
+        <v>38.46153846153849</v>
       </c>
       <c r="L77" t="n">
         <v>28.13000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>16.1</v>
       </c>
       <c r="K78" t="n">
-        <v>55.81395348837209</v>
+        <v>58.44155844155847</v>
       </c>
       <c r="L78" t="n">
         <v>28.58000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>16.2</v>
       </c>
       <c r="K79" t="n">
-        <v>54.02298850574717</v>
+        <v>55.84415584415591</v>
       </c>
       <c r="L79" t="n">
         <v>29.02000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>16.6</v>
       </c>
       <c r="K80" t="n">
-        <v>47.25274725274725</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="L80" t="n">
         <v>29.41000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>16.6</v>
       </c>
       <c r="K81" t="n">
-        <v>47.25274725274725</v>
+        <v>43.24324324324326</v>
       </c>
       <c r="L81" t="n">
         <v>29.74</v>
@@ -4410,7 +4432,7 @@
         <v>16.7</v>
       </c>
       <c r="K82" t="n">
-        <v>47.25274725274731</v>
+        <v>16.98113207547176</v>
       </c>
       <c r="L82" t="n">
         <v>30.05</v>
@@ -4461,7 +4483,7 @@
         <v>17.7</v>
       </c>
       <c r="K83" t="n">
-        <v>29.1666666666667</v>
+        <v>5.084745762711881</v>
       </c>
       <c r="L83" t="n">
         <v>30.04000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>17.7</v>
       </c>
       <c r="K84" t="n">
-        <v>29.1666666666667</v>
+        <v>31.91489361702131</v>
       </c>
       <c r="L84" t="n">
         <v>30.07000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>18.5</v>
       </c>
       <c r="K85" t="n">
-        <v>19.23076923076924</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L85" t="n">
         <v>30.14000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>20.8</v>
       </c>
       <c r="K86" t="n">
-        <v>36.00000000000002</v>
+        <v>33.33333333333336</v>
       </c>
       <c r="L86" t="n">
         <v>30.41000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>22.3</v>
       </c>
       <c r="K87" t="n">
-        <v>20.86330935251801</v>
+        <v>-25.80645161290319</v>
       </c>
       <c r="L87" t="n">
         <v>30.50000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>23.5</v>
       </c>
       <c r="K88" t="n">
-        <v>27.15231788079472</v>
+        <v>-4.1095890410959</v>
       </c>
       <c r="L88" t="n">
         <v>30.46000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>24.7</v>
       </c>
       <c r="K89" t="n">
-        <v>17.79141104294481</v>
+        <v>-13.58024691358022</v>
       </c>
       <c r="L89" t="n">
         <v>30.31000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>25.2</v>
       </c>
       <c r="K90" t="n">
-        <v>13.77245508982037</v>
+        <v>-18.60465116279068</v>
       </c>
       <c r="L90" t="n">
         <v>30.15000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="K91" t="n">
-        <v>5.325443786982243</v>
+        <v>-24.73118279569893</v>
       </c>
       <c r="L91" t="n">
         <v>29.91000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>26.5</v>
       </c>
       <c r="K92" t="n">
-        <v>7.51445086705203</v>
+        <v>-9.090909090909099</v>
       </c>
       <c r="L92" t="n">
         <v>29.73000000000002</v>
@@ -4971,7 +4993,7 @@
         <v>26.5</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.960264900662245</v>
+        <v>-9.090909090909099</v>
       </c>
       <c r="L93" t="n">
         <v>29.65000000000002</v>
@@ -5022,7 +5044,7 @@
         <v>26.7</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.013422818791952</v>
+        <v>2.439024390243894</v>
       </c>
       <c r="L94" t="n">
         <v>29.59000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>26.8</v>
       </c>
       <c r="K95" t="n">
-        <v>5.79710144927537</v>
+        <v>-36.66666666666668</v>
       </c>
       <c r="L95" t="n">
         <v>29.60000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>27.3</v>
       </c>
       <c r="K96" t="n">
-        <v>7.142857142857147</v>
+        <v>-3.999999999999988</v>
       </c>
       <c r="L96" t="n">
         <v>29.43000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>27.7</v>
       </c>
       <c r="K97" t="n">
-        <v>2.12765957446809</v>
+        <v>-42.85714285714288</v>
       </c>
       <c r="L97" t="n">
         <v>29.37000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>28</v>
       </c>
       <c r="K98" t="n">
-        <v>-21.00840336134454</v>
+        <v>-27.27272727272733</v>
       </c>
       <c r="L98" t="n">
         <v>29.16000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>28.3</v>
       </c>
       <c r="K99" t="n">
-        <v>-22.31404958677686</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L99" t="n">
         <v>29.04000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>28.9</v>
       </c>
       <c r="K100" t="n">
-        <v>-23.57723577235772</v>
+        <v>-17.24137931034484</v>
       </c>
       <c r="L100" t="n">
         <v>28.91000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>28.9</v>
       </c>
       <c r="K101" t="n">
-        <v>-23.57723577235772</v>
+        <v>-41.66666666666669</v>
       </c>
       <c r="L101" t="n">
         <v>28.86000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>29.1</v>
       </c>
       <c r="K102" t="n">
-        <v>-20.96774193548389</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L102" t="n">
         <v>28.78000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>29.2</v>
       </c>
       <c r="K103" t="n">
-        <v>-13.04347826086956</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L103" t="n">
         <v>28.71000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>29.2</v>
       </c>
       <c r="K104" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>28.62000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>29.4</v>
       </c>
       <c r="K105" t="n">
-        <v>-4.587155963302752</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L105" t="n">
         <v>28.56000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>29.5</v>
       </c>
       <c r="K106" t="n">
-        <v>-31.03448275862068</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L106" t="n">
         <v>28.46000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>29.5</v>
       </c>
       <c r="K107" t="n">
-        <v>-16.66666666666666</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L107" t="n">
         <v>28.40000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>29.7</v>
       </c>
       <c r="K108" t="n">
-        <v>-41.93548387096774</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L108" t="n">
         <v>28.35000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>29.9</v>
       </c>
       <c r="K109" t="n">
-        <v>-30.76923076923078</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L109" t="n">
         <v>28.31000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>29.9</v>
       </c>
       <c r="K110" t="n">
-        <v>-23.40425531914895</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L110" t="n">
         <v>28.33000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>30</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.999999999999978</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L111" t="n">
         <v>28.36000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>30.2</v>
       </c>
       <c r="K112" t="n">
-        <v>-24.32432432432427</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L112" t="n">
         <v>28.35000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>30.40000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.2051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>28.31000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>30.60000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-28.20512820512808</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L114" t="n">
         <v>28.29000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>30.80000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-29.99999999999996</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L115" t="n">
         <v>28.23000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>31.00000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-40.54054054054036</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L116" t="n">
         <v>28.18000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>31.20000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-37.14285714285698</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L117" t="n">
         <v>28.11000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>31.20000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-31.24999999999983</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L118" t="n">
         <v>28.06000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>31.60000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-33.33333333333319</v>
+        <v>-41.17647058823493</v>
       </c>
       <c r="L119" t="n">
         <v>27.99000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>32.00000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>-3.225806451612933</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>27.96000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>32.40000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.28571428571423</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L121" t="n">
         <v>27.88000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>32.50000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-17.64705882352926</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L122" t="n">
         <v>27.83000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>32.50000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-21.21212121212109</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L123" t="n">
         <v>27.80000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>32.60000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L124" t="n">
         <v>27.76000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>32.7</v>
       </c>
       <c r="K125" t="n">
-        <v>-27.27272727272719</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L125" t="n">
         <v>27.73000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>33</v>
       </c>
       <c r="K126" t="n">
-        <v>-37.14285714285716</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L126" t="n">
         <v>27.65000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>33.5</v>
       </c>
       <c r="K127" t="n">
-        <v>-20.00000000000002</v>
+        <v>-4.347826086956461</v>
       </c>
       <c r="L127" t="n">
         <v>27.64000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>33.5</v>
       </c>
       <c r="K128" t="n">
-        <v>-15.78947368421048</v>
+        <v>15.78947368421069</v>
       </c>
       <c r="L128" t="n">
         <v>27.63000000000002</v>
@@ -6807,7 +6829,7 @@
         <v>33.8</v>
       </c>
       <c r="K129" t="n">
-        <v>-2.564102564102513</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L129" t="n">
         <v>27.69000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>33.8</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.564102564102513</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L130" t="n">
         <v>27.71000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>34.4</v>
       </c>
       <c r="K131" t="n">
-        <v>-18.18181818181822</v>
+        <v>-5.263157894736961</v>
       </c>
       <c r="L131" t="n">
         <v>27.71000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>34.59999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090909156</v>
+        <v>4.761904761904705</v>
       </c>
       <c r="L132" t="n">
         <v>27.72000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>34.69999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-6.976744186046473</v>
+        <v>-4.761904761904705</v>
       </c>
       <c r="L133" t="n">
         <v>27.72000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-9.523809523809632</v>
+        <v>4.761904761904705</v>
       </c>
       <c r="L134" t="n">
         <v>27.72000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.000000000000018</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L135" t="n">
         <v>27.73000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.000000000000107</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L136" t="n">
         <v>27.79000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>2.56410256410262</v>
+        <v>12.50000000000006</v>
       </c>
       <c r="L137" t="n">
         <v>27.81000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>35.39999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.761904761904774</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L138" t="n">
         <v>27.80000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>35.99999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>18.18181818181829</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L139" t="n">
         <v>27.82000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-4.347826086956525</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L140" t="n">
         <v>27.78000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>4.761904761904765</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>27.8</v>
@@ -7470,7 +7492,7 @@
         <v>36.7</v>
       </c>
       <c r="K142" t="n">
-        <v>4.761904761904765</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L142" t="n">
         <v>27.81000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>36.8</v>
       </c>
       <c r="K143" t="n">
-        <v>2.325581395348797</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>27.82</v>
@@ -7572,7 +7594,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.666666666666704</v>
+        <v>-13.04347826086953</v>
       </c>
       <c r="L144" t="n">
         <v>27.79</v>
@@ -7623,7 +7645,7 @@
         <v>37.3</v>
       </c>
       <c r="K145" t="n">
-        <v>-8.6956521739131</v>
+        <v>-30.43478260869547</v>
       </c>
       <c r="L145" t="n">
         <v>27.74</v>
@@ -7674,7 +7696,7 @@
         <v>37.59999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>4.347826086956512</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L146" t="n">
         <v>27.70000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>37.7</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.523809523809584</v>
+        <v>-13.04347826086957</v>
       </c>
       <c r="L147" t="n">
         <v>27.64</v>
@@ -7776,7 +7798,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-17.39130434782612</v>
+        <v>-61.9047619047619</v>
       </c>
       <c r="L148" t="n">
         <v>27.57</v>
@@ -7827,7 +7849,7 @@
         <v>38.09999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>-25.58139534883726</v>
+        <v>-46.66666666666661</v>
       </c>
       <c r="L149" t="n">
         <v>27.44</v>
@@ -7878,7 +7900,7 @@
         <v>38.3</v>
       </c>
       <c r="K150" t="n">
-        <v>-20.00000000000005</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L150" t="n">
         <v>27.39</v>
@@ -7929,7 +7951,7 @@
         <v>38.59999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-14.28571428571433</v>
+        <v>-47.36842105263172</v>
       </c>
       <c r="L151" t="n">
         <v>27.31</v>
@@ -7980,7 +8002,7 @@
         <v>38.89999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-11.62790697674419</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L152" t="n">
         <v>27.25</v>
@@ -8031,7 +8053,7 @@
         <v>39.09999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.545454545454604</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>27.22</v>
@@ -8082,7 +8104,7 @@
         <v>39.19999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-9.090909090909047</v>
+        <v>5.26315789473694</v>
       </c>
       <c r="L154" t="n">
         <v>27.21</v>
@@ -8133,7 +8155,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.666666666666682</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L155" t="n">
         <v>27.23</v>
@@ -8184,7 +8206,7 @@
         <v>39.79999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>23.80952380952396</v>
       </c>
       <c r="L156" t="n">
         <v>27.27</v>
@@ -8235,7 +8257,7 @@
         <v>40.19999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>-9.803921568627462</v>
+        <v>23.80952380952396</v>
       </c>
       <c r="L157" t="n">
         <v>27.28</v>
@@ -8286,7 +8308,7 @@
         <v>40.59999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.53846153846152</v>
+        <v>4.00000000000008</v>
       </c>
       <c r="L158" t="n">
         <v>27.29</v>
@@ -8337,7 +8359,7 @@
         <v>40.69999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>-23.40425531914906</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>27.31</v>
@@ -8388,7 +8410,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.28571428571432</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L160" t="n">
         <v>27.3</v>
@@ -8439,7 +8461,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571432</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L161" t="n">
         <v>27.32000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>40.79999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>-17.07317073170741</v>
+        <v>-17.64705882352951</v>
       </c>
       <c r="L162" t="n">
         <v>27.31000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>41.19999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.54545454545456</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L163" t="n">
         <v>27.32000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>41.19999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>2.439024390243953</v>
+        <v>5.263157894736961</v>
       </c>
       <c r="L164" t="n">
         <v>27.34000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>41.59999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.325581395348804</v>
+        <v>-44.44444444444471</v>
       </c>
       <c r="L165" t="n">
         <v>27.31000000000002</v>
@@ -8745,7 +8767,7 @@
         <v>42.49999999999996</v>
       </c>
       <c r="K167" t="n">
-        <v>-8.333333333333357</v>
+        <v>-5.263157894736961</v>
       </c>
       <c r="L167" t="n">
         <v>27.22000000000002</v>
@@ -8796,7 +8818,7 @@
         <v>42.49999999999996</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>-11.11111111111113</v>
       </c>
       <c r="L168" t="n">
         <v>27.21000000000002</v>
@@ -8847,7 +8869,7 @@
         <v>42.59999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>2.222222222222268</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>27.20000000000002</v>
@@ -8898,7 +8920,7 @@
         <v>42.99999999999996</v>
       </c>
       <c r="K170" t="n">
-        <v>6.382978723404315</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L170" t="n">
         <v>27.24000000000002</v>
@@ -8949,7 +8971,7 @@
         <v>43.29999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>19.14893617021292</v>
+        <v>27.99999999999997</v>
       </c>
       <c r="L171" t="n">
         <v>27.31000000000002</v>
@@ -9000,7 +9022,7 @@
         <v>43.29999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>13.63636363636374</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="L172" t="n">
         <v>27.38000000000002</v>
@@ -9051,7 +9073,7 @@
         <v>43.29999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>9.523809523809632</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="L173" t="n">
         <v>27.41000000000002</v>
@@ -9102,7 +9124,7 @@
         <v>43.29999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>12.19512195121957</v>
+        <v>41.17647058823518</v>
       </c>
       <c r="L174" t="n">
         <v>27.44000000000002</v>
@@ -9153,7 +9175,7 @@
         <v>43.59999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>2.32558139534888</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>27.48000000000002</v>
@@ -9204,7 +9226,7 @@
         <v>43.99999999999996</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>59.99999999999991</v>
       </c>
       <c r="L176" t="n">
         <v>27.52000000000002</v>
@@ -9255,7 +9277,7 @@
         <v>44.09999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>7.692307692307741</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
         <v>27.60000000000002</v>
@@ -9306,7 +9328,7 @@
         <v>44.19999999999996</v>
       </c>
       <c r="K178" t="n">
-        <v>22.22222222222226</v>
+        <v>50</v>
       </c>
       <c r="L178" t="n">
         <v>27.69000000000002</v>
@@ -9357,7 +9379,7 @@
         <v>44.39999999999996</v>
       </c>
       <c r="K179" t="n">
-        <v>24.32432432432446</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L179" t="n">
         <v>27.79000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>44.39999999999996</v>
       </c>
       <c r="K180" t="n">
-        <v>27.77777777777782</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L180" t="n">
         <v>27.85000000000002</v>
@@ -9459,7 +9481,7 @@
         <v>44.49999999999996</v>
       </c>
       <c r="K181" t="n">
-        <v>29.72972972972977</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L181" t="n">
         <v>27.89000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>45.09999999999996</v>
       </c>
       <c r="K182" t="n">
-        <v>39.53488372093031</v>
+        <v>55.55555555555586</v>
       </c>
       <c r="L182" t="n">
         <v>27.99000000000002</v>
@@ -9561,7 +9583,7 @@
         <v>45.29999999999995</v>
       </c>
       <c r="K183" t="n">
-        <v>36.58536585365865</v>
+        <v>60.00000000000038</v>
       </c>
       <c r="L183" t="n">
         <v>28.11000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>45.29999999999995</v>
       </c>
       <c r="K184" t="n">
-        <v>36.58536585365865</v>
+        <v>88.23529411764764</v>
       </c>
       <c r="L184" t="n">
         <v>28.23000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>45.39999999999996</v>
       </c>
       <c r="K185" t="n">
-        <v>47.36842105263162</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L185" t="n">
         <v>28.37000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>45.79999999999995</v>
       </c>
       <c r="K186" t="n">
-        <v>26.31578947368428</v>
+        <v>41.17647058823552</v>
       </c>
       <c r="L186" t="n">
         <v>28.43000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>45.79999999999995</v>
       </c>
       <c r="K187" t="n">
-        <v>45.4545454545456</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L187" t="n">
         <v>28.50000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>45.99999999999996</v>
       </c>
       <c r="K188" t="n">
-        <v>37.14285714285724</v>
+        <v>12.5</v>
       </c>
       <c r="L188" t="n">
         <v>28.54000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>46.09999999999995</v>
       </c>
       <c r="K189" t="n">
-        <v>37.14285714285721</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L189" t="n">
         <v>28.57000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>46.49999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>37.14285714285724</v>
+        <v>30.00000000000007</v>
       </c>
       <c r="L190" t="n">
         <v>28.64000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>46.79999999999995</v>
       </c>
       <c r="K191" t="n">
-        <v>20.00000000000006</v>
+        <v>-17.6470588235295</v>
       </c>
       <c r="L191" t="n">
         <v>28.67000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>46.79999999999995</v>
       </c>
       <c r="K192" t="n">
-        <v>20.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>28.64000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>46.89999999999996</v>
       </c>
       <c r="K193" t="n">
-        <v>16.66666666666666</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L193" t="n">
         <v>28.58000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>46.99999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>13.51351351351356</v>
+        <v>-37.49999999999984</v>
       </c>
       <c r="L194" t="n">
         <v>28.51000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>46.99999999999996</v>
       </c>
       <c r="K195" t="n">
-        <v>23.52941176470596</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L195" t="n">
         <v>28.45000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>47.19999999999996</v>
       </c>
       <c r="K196" t="n">
-        <v>18.75000000000007</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>28.45000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>47.49999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>11.76470588235293</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L197" t="n">
         <v>28.42000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>47.69999999999996</v>
       </c>
       <c r="K198" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>28.43000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>47.89999999999996</v>
       </c>
       <c r="K199" t="n">
-        <v>2.857142857142796</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L199" t="n">
         <v>28.41000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>47.89999999999996</v>
       </c>
       <c r="K200" t="n">
-        <v>2.857142857142796</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L200" t="n">
         <v>28.35</v>
@@ -10479,7 +10501,7 @@
         <v>47.89999999999996</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L201" t="n">
         <v>28.32</v>
@@ -10530,7 +10552,7 @@
         <v>48.39999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.6666666666664</v>
       </c>
       <c r="L202" t="n">
         <v>28.24</v>
@@ -10581,7 +10603,7 @@
         <v>49.09999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>-15.78947368421052</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L203" t="n">
         <v>28.24</v>
@@ -10632,7 +10654,7 @@
         <v>49.09999999999997</v>
       </c>
       <c r="K204" t="n">
-        <v>-15.78947368421052</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L204" t="n">
         <v>28.25</v>
@@ -10683,7 +10705,7 @@
         <v>49.39999999999996</v>
       </c>
       <c r="K205" t="n">
-        <v>-19.99999999999989</v>
+        <v>-18.18181818181809</v>
       </c>
       <c r="L205" t="n">
         <v>28.23</v>
@@ -10734,7 +10756,7 @@
         <v>49.39999999999996</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.11111111111104</v>
+        <v>-5.263157894736715</v>
       </c>
       <c r="L206" t="n">
         <v>28.19</v>
@@ -10785,7 +10807,7 @@
         <v>49.59999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>-5.263157894736808</v>
+        <v>-5.263157894736715</v>
       </c>
       <c r="L207" t="n">
         <v>28.20000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>49.59999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L208" t="n">
         <v>28.19000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>49.79999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>-8.108108108107993</v>
+        <v>-5.263157894736715</v>
       </c>
       <c r="L209" t="n">
         <v>28.18000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>50.79999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-39.53488372093011</v>
+        <v>-37.93103448275848</v>
       </c>
       <c r="L210" t="n">
         <v>28.07000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>-22.72727272727266</v>
+        <v>-7.142857142857107</v>
       </c>
       <c r="L211" t="n">
         <v>28.00000000000002</v>
@@ -11040,7 +11062,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>-22.72727272727266</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L212" t="n">
         <v>27.98000000000002</v>
@@ -11091,7 +11113,7 @@
         <v>51.79999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.122448979591763</v>
+        <v>-11.11111111111099</v>
       </c>
       <c r="L213" t="n">
         <v>27.95000000000002</v>
@@ -11142,7 +11164,7 @@
         <v>52.59999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>-17.85714285714283</v>
+        <v>-25</v>
       </c>
       <c r="L214" t="n">
         <v>27.84000000000002</v>
@@ -11193,7 +11215,7 @@
         <v>52.99999999999996</v>
       </c>
       <c r="K215" t="n">
-        <v>-10.00000000000001</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L215" t="n">
         <v>27.80000000000002</v>
@@ -11244,7 +11266,7 @@
         <v>53.19999999999996</v>
       </c>
       <c r="K216" t="n">
-        <v>-16.66666666666666</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L216" t="n">
         <v>27.74000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>53.39999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-8.474576271186432</v>
+        <v>-15.78947368421058</v>
       </c>
       <c r="L217" t="n">
         <v>27.68000000000002</v>
@@ -11346,7 +11368,7 @@
         <v>53.69999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-16.66666666666666</v>
+        <v>-17.94871794871806</v>
       </c>
       <c r="L218" t="n">
         <v>27.59000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>53.99999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-8.196721311475418</v>
+        <v>18.75</v>
       </c>
       <c r="L219" t="n">
         <v>27.55000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>54.29999999999995</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.124999999999993</v>
+        <v>16.12903225806458</v>
       </c>
       <c r="L220" t="n">
         <v>27.64000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>54.29999999999995</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.124999999999993</v>
+        <v>16.12903225806458</v>
       </c>
       <c r="L221" t="n">
         <v>27.69000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>54.49999999999996</v>
       </c>
       <c r="K222" t="n">
-        <v>1.639344262295107</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L222" t="n">
         <v>27.72000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>54.69999999999996</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.142857142857125</v>
+        <v>33.33333333333339</v>
       </c>
       <c r="L223" t="n">
         <v>27.71000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>55.29999999999996</v>
       </c>
       <c r="K224" t="n">
-        <v>-16.12903225806453</v>
+        <v>-13.04347826086961</v>
       </c>
       <c r="L224" t="n">
         <v>27.72000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>55.59999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>-16.12903225806453</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L225" t="n">
         <v>27.66000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>55.79999999999995</v>
       </c>
       <c r="K226" t="n">
-        <v>-12.50000000000003</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>27.64000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>56.09999999999995</v>
       </c>
       <c r="K227" t="n">
-        <v>-10.76923076923078</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L227" t="n">
         <v>27.63000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>56.29999999999995</v>
       </c>
       <c r="K228" t="n">
-        <v>-13.43283582089558</v>
+        <v>-13.04347826086961</v>
       </c>
       <c r="L228" t="n">
         <v>27.63000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.090909090909131</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L229" t="n">
         <v>27.61000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>7.142857142857134</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L230" t="n">
         <v>27.56000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-15.78947368421058</v>
       </c>
       <c r="L231" t="n">
         <v>27.51000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>-1.886792452830219</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L232" t="n">
         <v>27.47000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>56.69999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>-10.20408163265308</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L233" t="n">
         <v>27.43000000000001</v>
@@ -12162,7 +12184,7 @@
         <v>56.89999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>2.325581395348789</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L234" t="n">
         <v>27.43000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>56.99999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>27.45000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.692307692307714</v>
+        <v>-39.99999999999993</v>
       </c>
       <c r="L236" t="n">
         <v>27.44000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K237" t="n">
-        <v>-13.51351351351353</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L237" t="n">
         <v>27.40000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K238" t="n">
-        <v>-5.882352941176452</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L238" t="n">
         <v>27.38000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K239" t="n">
-        <v>-16.12903225806451</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L239" t="n">
         <v>27.35</v>
@@ -12468,7 +12490,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K240" t="n">
-        <v>-28.57142857142855</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L240" t="n">
         <v>27.32</v>
@@ -12519,7 +12541,7 @@
         <v>57.09999999999996</v>
       </c>
       <c r="K241" t="n">
-        <v>-28.57142857142855</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L241" t="n">
         <v>27.29</v>
@@ -12570,7 +12592,7 @@
         <v>57.39999999999996</v>
       </c>
       <c r="K242" t="n">
-        <v>-31.0344827586207</v>
+        <v>-100</v>
       </c>
       <c r="L242" t="n">
         <v>27.24</v>
@@ -12621,7 +12643,7 @@
         <v>57.39999999999996</v>
       </c>
       <c r="K243" t="n">
-        <v>-40.74074074074075</v>
+        <v>-100</v>
       </c>
       <c r="L243" t="n">
         <v>27.17</v>
@@ -12672,7 +12694,7 @@
         <v>57.39999999999996</v>
       </c>
       <c r="K244" t="n">
-        <v>-23.8095238095238</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L244" t="n">
         <v>27.12</v>
@@ -12723,7 +12745,7 @@
         <v>57.89999999999996</v>
       </c>
       <c r="K245" t="n">
-        <v>13.04347826086942</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L245" t="n">
         <v>27.13</v>
@@ -12774,7 +12796,7 @@
         <v>58.29999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>-11.99999999999999</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L246" t="n">
         <v>27.11</v>
@@ -12825,7 +12847,7 @@
         <v>58.39999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>-30.43478260869563</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L247" t="n">
         <v>27.07999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>58.49999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-27.27272727272714</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L248" t="n">
         <v>27.04</v>
@@ -12927,7 +12949,7 @@
         <v>58.89999999999996</v>
       </c>
       <c r="K249" t="n">
-        <v>-12.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>27.04</v>
@@ -12978,7 +13000,7 @@
         <v>58.99999999999996</v>
       </c>
       <c r="K250" t="n">
-        <v>-15.38461538461532</v>
+        <v>-5.263157894736733</v>
       </c>
       <c r="L250" t="n">
         <v>27.03</v>
@@ -13029,7 +13051,7 @@
         <v>59.09999999999995</v>
       </c>
       <c r="K251" t="n">
-        <v>-11.11111111111116</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L251" t="n">
         <v>27.03</v>
@@ -13080,7 +13102,7 @@
         <v>59.09999999999995</v>
       </c>
       <c r="K252" t="n">
-        <v>-7.692307692307682</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L252" t="n">
         <v>27.06</v>
@@ -13131,7 +13153,7 @@
         <v>59.09999999999995</v>
       </c>
       <c r="K253" t="n">
-        <v>-16.66666666666682</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L253" t="n">
         <v>27.09</v>
@@ -13182,7 +13204,7 @@
         <v>59.09999999999995</v>
       </c>
       <c r="K254" t="n">
-        <v>-9.090909090909104</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L254" t="n">
         <v>27.12</v>
@@ -13233,7 +13255,7 @@
         <v>59.29999999999995</v>
       </c>
       <c r="K255" t="n">
-        <v>-13.04347826086961</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>27.08000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>59.39999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>-4.347826086956434</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L256" t="n">
         <v>27.09000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>59.59999999999995</v>
       </c>
       <c r="K257" t="n">
-        <v>4.000000000000068</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L257" t="n">
         <v>27.13000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>59.59999999999995</v>
       </c>
       <c r="K258" t="n">
-        <v>4.000000000000068</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L258" t="n">
         <v>27.18000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>59.69999999999995</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L259" t="n">
         <v>27.18000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K261" t="n">
-        <v>3.703703703703762</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L261" t="n">
         <v>27.20000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>59.89999999999995</v>
       </c>
       <c r="K262" t="n">
-        <v>20.00000000000011</v>
+        <v>25</v>
       </c>
       <c r="L262" t="n">
         <v>27.22000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>59.99999999999994</v>
       </c>
       <c r="K263" t="n">
-        <v>15.38461538461559</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L263" t="n">
         <v>27.23000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>60.19999999999995</v>
       </c>
       <c r="K264" t="n">
-        <v>21.42857142857161</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L264" t="n">
         <v>27.26000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>60.49999999999994</v>
       </c>
       <c r="K265" t="n">
-        <v>-7.692307692307724</v>
+        <v>9.090909090909003</v>
       </c>
       <c r="L265" t="n">
         <v>27.28000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>60.69999999999995</v>
       </c>
       <c r="K266" t="n">
-        <v>16.66666666666671</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L266" t="n">
         <v>27.31000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>60.79999999999995</v>
       </c>
       <c r="K267" t="n">
-        <v>25.00000000000022</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L267" t="n">
         <v>27.33000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>60.79999999999995</v>
       </c>
       <c r="K268" t="n">
-        <v>30.43478260869576</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L268" t="n">
         <v>27.35</v>
@@ -13947,7 +13969,7 @@
         <v>60.89999999999995</v>
       </c>
       <c r="K269" t="n">
-        <v>20.00000000000018</v>
+        <v>33.33333333333363</v>
       </c>
       <c r="L269" t="n">
         <v>27.39000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>60.99999999999994</v>
       </c>
       <c r="K270" t="n">
-        <v>30.0000000000001</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L270" t="n">
         <v>27.44000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>60.99999999999994</v>
       </c>
       <c r="K271" t="n">
-        <v>26.31578947368433</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L271" t="n">
         <v>27.48000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>61.09999999999994</v>
       </c>
       <c r="K272" t="n">
-        <v>20.00000000000025</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L272" t="n">
         <v>27.50000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>61.19999999999993</v>
       </c>
       <c r="K273" t="n">
-        <v>23.80952380952404</v>
+        <v>20.00000000000021</v>
       </c>
       <c r="L273" t="n">
         <v>27.54000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>61.19999999999993</v>
       </c>
       <c r="K274" t="n">
-        <v>23.80952380952404</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L274" t="n">
         <v>27.56000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>61.29999999999993</v>
       </c>
       <c r="K275" t="n">
-        <v>30.0000000000005</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L275" t="n">
         <v>27.60000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>61.29999999999993</v>
       </c>
       <c r="K276" t="n">
-        <v>26.31578947368462</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L276" t="n">
         <v>27.62000000000002</v>
@@ -14355,7 +14377,7 @@
         <v>61.29999999999993</v>
       </c>
       <c r="K277" t="n">
-        <v>17.64705882352972</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L277" t="n">
         <v>27.63000000000002</v>
@@ -14406,7 +14428,7 @@
         <v>61.69999999999992</v>
       </c>
       <c r="K278" t="n">
-        <v>33.33333333333373</v>
+        <v>50.00000000000134</v>
       </c>
       <c r="L278" t="n">
         <v>27.68000000000002</v>
@@ -14457,7 +14479,7 @@
         <v>61.99999999999993</v>
       </c>
       <c r="K279" t="n">
-        <v>21.73913043478284</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>27.69000000000002</v>
@@ -14508,7 +14530,7 @@
         <v>61.99999999999993</v>
       </c>
       <c r="K280" t="n">
-        <v>21.73913043478284</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>27.69000000000002</v>
@@ -14559,7 +14581,7 @@
         <v>62.39999999999993</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>-23.07692307692331</v>
       </c>
       <c r="L281" t="n">
         <v>27.65000000000002</v>
@@ -14610,7 +14632,7 @@
         <v>62.59999999999992</v>
       </c>
       <c r="K282" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L282" t="n">
         <v>27.60000000000002</v>
@@ -14661,7 +14683,7 @@
         <v>62.59999999999992</v>
       </c>
       <c r="K283" t="n">
-        <v>-7.692307692307724</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L283" t="n">
         <v>27.54000000000002</v>
@@ -14712,7 +14734,7 @@
         <v>62.59999999999992</v>
       </c>
       <c r="K284" t="n">
-        <v>-16.66666666666677</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L284" t="n">
         <v>27.48000000000003</v>
@@ -14763,7 +14785,7 @@
         <v>62.69999999999992</v>
       </c>
       <c r="K285" t="n">
-        <v>-9.090909090909136</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L285" t="n">
         <v>27.42000000000002</v>
@@ -14814,7 +14836,7 @@
         <v>62.69999999999992</v>
       </c>
       <c r="K286" t="n">
-        <v>-20.00000000000014</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L286" t="n">
         <v>27.36000000000002</v>
@@ -14865,7 +14887,7 @@
         <v>62.69999999999992</v>
       </c>
       <c r="K287" t="n">
-        <v>-26.31578947368453</v>
+        <v>-100</v>
       </c>
       <c r="L287" t="n">
         <v>27.30000000000002</v>
@@ -14916,7 +14938,7 @@
         <v>62.69999999999992</v>
       </c>
       <c r="K288" t="n">
-        <v>-26.31578947368453</v>
+        <v>-100.0000000000005</v>
       </c>
       <c r="L288" t="n">
         <v>27.20000000000002</v>
@@ -14967,7 +14989,7 @@
         <v>62.79999999999993</v>
       </c>
       <c r="K289" t="n">
-        <v>-36.84210526315849</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="L289" t="n">
         <v>27.12000000000002</v>
@@ -15018,7 +15040,7 @@
         <v>62.79999999999993</v>
       </c>
       <c r="K290" t="n">
-        <v>-44.4444444444449</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L290" t="n">
         <v>27.04000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>62.89999999999993</v>
       </c>
       <c r="K291" t="n">
-        <v>-36.84210526315816</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>27.01000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>62.89999999999993</v>
       </c>
       <c r="K292" t="n">
-        <v>-33.3333333333336</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>27.00000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>62.99999999999993</v>
       </c>
       <c r="K293" t="n">
-        <v>-33.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>27.00000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>63.09999999999992</v>
       </c>
       <c r="K294" t="n">
-        <v>-26.31578947368433</v>
+        <v>50</v>
       </c>
       <c r="L294" t="n">
         <v>27.01000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>63.29999999999993</v>
       </c>
       <c r="K295" t="n">
-        <v>-30.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>27.01000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>63.29999999999993</v>
       </c>
       <c r="K296" t="n">
-        <v>-30.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>27.01000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>63.49999999999993</v>
       </c>
       <c r="K297" t="n">
-        <v>-36.36363636363635</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L297" t="n">
         <v>26.99000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>63.49999999999993</v>
       </c>
       <c r="K298" t="n">
-        <v>-66.66666666666647</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L298" t="n">
         <v>26.97000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>63.49999999999993</v>
       </c>
       <c r="K299" t="n">
-        <v>-59.99999999999991</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L299" t="n">
         <v>26.96000000000002</v>
@@ -15528,7 +15550,7 @@
         <v>63.59999999999993</v>
       </c>
       <c r="K300" t="n">
-        <v>-62.49999999999994</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L300" t="n">
         <v>26.94000000000002</v>
@@ -15579,7 +15601,7 @@
         <v>63.59999999999993</v>
       </c>
       <c r="K301" t="n">
-        <v>-50</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L301" t="n">
         <v>26.91000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>63.59999999999993</v>
       </c>
       <c r="K302" t="n">
-        <v>-39.99999999999993</v>
+        <v>-66.66666666666686</v>
       </c>
       <c r="L302" t="n">
         <v>26.88000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>63.69999999999993</v>
       </c>
       <c r="K303" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L303" t="n">
         <v>26.83000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>63.69999999999993</v>
       </c>
       <c r="K304" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L304" t="n">
         <v>26.77000000000002</v>
@@ -15783,7 +15805,7 @@
         <v>63.69999999999993</v>
       </c>
       <c r="K305" t="n">
-        <v>-39.99999999999957</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L305" t="n">
         <v>26.73000000000002</v>
@@ -15834,7 +15856,7 @@
         <v>63.79999999999993</v>
       </c>
       <c r="K306" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L306" t="n">
         <v>26.68000000000002</v>
@@ -15885,7 +15907,7 @@
         <v>64.19999999999993</v>
       </c>
       <c r="K307" t="n">
-        <v>-6.66666666666673</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L307" t="n">
         <v>26.69000000000002</v>
@@ -15936,7 +15958,7 @@
         <v>64.29999999999993</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L308" t="n">
         <v>26.71000000000002</v>
@@ -15987,7 +16009,7 @@
         <v>64.79999999999993</v>
       </c>
       <c r="K309" t="n">
-        <v>-19.99999999999993</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L309" t="n">
         <v>26.68000000000001</v>
@@ -16038,7 +16060,7 @@
         <v>65.19999999999993</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>12.49999999999994</v>
       </c>
       <c r="L310" t="n">
         <v>26.70000000000001</v>
@@ -16089,7 +16111,7 @@
         <v>65.49999999999993</v>
       </c>
       <c r="K311" t="n">
-        <v>-15.38461538461532</v>
+        <v>-5.263157894736733</v>
       </c>
       <c r="L311" t="n">
         <v>26.69000000000002</v>
@@ -16140,7 +16162,7 @@
         <v>65.59999999999994</v>
       </c>
       <c r="K312" t="n">
-        <v>-18.51851851851845</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L312" t="n">
         <v>26.67000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>65.59999999999994</v>
       </c>
       <c r="K313" t="n">
-        <v>-23.07692307692306</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L313" t="n">
         <v>26.66000000000001</v>
@@ -16242,7 +16264,7 @@
         <v>65.79999999999994</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333307</v>
+        <v>-14.28571428571426</v>
       </c>
       <c r="L314" t="n">
         <v>26.63000000000001</v>
@@ -16293,7 +16315,7 @@
         <v>65.79999999999994</v>
       </c>
       <c r="K315" t="n">
-        <v>-27.99999999999982</v>
+        <v>-9.999999999999929</v>
       </c>
       <c r="L315" t="n">
         <v>26.60000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>65.79999999999994</v>
       </c>
       <c r="K316" t="n">
-        <v>-27.99999999999982</v>
+        <v>-37.49999999999967</v>
       </c>
       <c r="L316" t="n">
         <v>26.58000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>65.99999999999994</v>
       </c>
       <c r="K317" t="n">
-        <v>-27.99999999999982</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L317" t="n">
         <v>26.50000000000002</v>
@@ -16446,7 +16468,7 @@
         <v>66.39999999999995</v>
       </c>
       <c r="K318" t="n">
-        <v>-10.34482758620685</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>26.45000000000002</v>
@@ -16497,7 +16519,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K319" t="n">
-        <v>-21.21212121212103</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L319" t="n">
         <v>26.41000000000002</v>
@@ -16548,7 +16570,7 @@
         <v>66.79999999999995</v>
       </c>
       <c r="K320" t="n">
-        <v>-18.74999999999979</v>
+        <v>-38.4615384615377</v>
       </c>
       <c r="L320" t="n">
         <v>26.33000000000002</v>
@@ -16599,7 +16621,7 @@
         <v>67.29999999999995</v>
       </c>
       <c r="K321" t="n">
-        <v>-2.702702702702628</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L321" t="n">
         <v>26.33000000000002</v>
@@ -16650,7 +16672,7 @@
         <v>67.89999999999995</v>
       </c>
       <c r="K322" t="n">
-        <v>-16.27906976744177</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L322" t="n">
         <v>26.28000000000002</v>
@@ -16701,7 +16723,7 @@
         <v>67.99999999999994</v>
       </c>
       <c r="K323" t="n">
-        <v>-16.27906976744188</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L323" t="n">
         <v>26.22000000000002</v>
@@ -16752,7 +16774,7 @@
         <v>68.09999999999994</v>
       </c>
       <c r="K324" t="n">
-        <v>-18.18181818181817</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L324" t="n">
         <v>26.17000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>68.49999999999994</v>
       </c>
       <c r="K325" t="n">
-        <v>-8.333333333333357</v>
+        <v>-3.703703703703753</v>
       </c>
       <c r="L325" t="n">
         <v>26.16000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>68.49999999999994</v>
       </c>
       <c r="K326" t="n">
-        <v>-6.382978723404258</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L326" t="n">
         <v>26.15000000000002</v>
@@ -16905,7 +16927,7 @@
         <v>68.49999999999994</v>
       </c>
       <c r="K327" t="n">
-        <v>-16.2790697674418</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L327" t="n">
         <v>26.16000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K328" t="n">
-        <v>-26.08695652173899</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L328" t="n">
         <v>26.09000000000001</v>
@@ -17007,7 +17029,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K329" t="n">
-        <v>-17.0731707317072</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L329" t="n">
         <v>26.06000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K330" t="n">
-        <v>-29.72972972972954</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L330" t="n">
         <v>26.03000000000001</v>
@@ -17109,7 +17131,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K331" t="n">
-        <v>-23.52941176470577</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L331" t="n">
         <v>25.95000000000001</v>
@@ -17160,7 +17182,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K332" t="n">
-        <v>-21.21212121212112</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L332" t="n">
         <v>25.93000000000001</v>
@@ -17211,7 +17233,7 @@
         <v>69.19999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>-11.11111111111104</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L333" t="n">
         <v>25.95000000000002</v>
@@ -17262,7 +17284,7 @@
         <v>69.39999999999995</v>
       </c>
       <c r="K334" t="n">
-        <v>-11.11111111111114</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L334" t="n">
         <v>25.96000000000002</v>
@@ -17313,7 +17335,7 @@
         <v>69.39999999999995</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.11111111111114</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L335" t="n">
         <v>25.93000000000001</v>
@@ -17364,7 +17386,7 @@
         <v>69.59999999999995</v>
       </c>
       <c r="K336" t="n">
-        <v>-5.263157894736808</v>
+        <v>-9.090909090908825</v>
       </c>
       <c r="L336" t="n">
         <v>25.92000000000002</v>
@@ -17415,7 +17437,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K337" t="n">
-        <v>-7.6923076923077</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>25.88000000000002</v>
@@ -17466,7 +17488,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K338" t="n">
-        <v>-19.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>25.88000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>69.89999999999995</v>
       </c>
       <c r="K339" t="n">
-        <v>-9.677419354838749</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>25.88000000000002</v>
@@ -17568,7 +17590,7 @@
         <v>70.39999999999995</v>
       </c>
       <c r="K340" t="n">
-        <v>5.555555555555545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>25.93000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>70.49999999999994</v>
       </c>
       <c r="K341" t="n">
-        <v>-6.250000000000111</v>
+        <v>37.5</v>
       </c>
       <c r="L341" t="n">
         <v>25.99000000000002</v>
@@ -17670,7 +17692,7 @@
         <v>70.69999999999995</v>
       </c>
       <c r="K342" t="n">
-        <v>7.142857142857125</v>
+        <v>6.666666666666525</v>
       </c>
       <c r="L342" t="n">
         <v>26.03000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>70.69999999999995</v>
       </c>
       <c r="K343" t="n">
-        <v>11.11111111111112</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L343" t="n">
         <v>26.04000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>70.79999999999995</v>
       </c>
       <c r="K344" t="n">
-        <v>18.5185185185184</v>
+        <v>28.57142857142861</v>
       </c>
       <c r="L344" t="n">
         <v>26.08000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>70.79999999999995</v>
       </c>
       <c r="K345" t="n">
-        <v>4.347826086956561</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L345" t="n">
         <v>26.12000000000002</v>
@@ -17874,7 +17896,7 @@
         <v>70.99999999999996</v>
       </c>
       <c r="K346" t="n">
-        <v>-3.999999999999892</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L346" t="n">
         <v>26.12000000000002</v>
@@ -17925,7 +17947,7 @@
         <v>71.19999999999996</v>
       </c>
       <c r="K347" t="n">
-        <v>3.703703703703733</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L347" t="n">
         <v>26.17000000000002</v>
@@ -17976,7 +17998,7 @@
         <v>71.19999999999996</v>
       </c>
       <c r="K348" t="n">
-        <v>21.7391304347825</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L348" t="n">
         <v>26.22000000000002</v>
@@ -18027,7 +18049,7 @@
         <v>71.39999999999996</v>
       </c>
       <c r="K349" t="n">
-        <v>27.99999999999982</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L349" t="n">
         <v>26.29000000000001</v>
@@ -18078,7 +18100,7 @@
         <v>71.39999999999996</v>
       </c>
       <c r="K350" t="n">
-        <v>27.99999999999982</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L350" t="n">
         <v>26.31000000000001</v>
@@ -18129,7 +18151,7 @@
         <v>71.39999999999996</v>
       </c>
       <c r="K351" t="n">
-        <v>27.99999999999982</v>
+        <v>42.85714285714192</v>
       </c>
       <c r="L351" t="n">
         <v>26.32000000000001</v>
@@ -18180,7 +18202,7 @@
         <v>71.69999999999996</v>
       </c>
       <c r="K352" t="n">
-        <v>14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>26.32000000000001</v>
@@ -18231,7 +18253,7 @@
         <v>71.79999999999995</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L353" t="n">
         <v>26.31000000000002</v>
@@ -18282,7 +18304,7 @@
         <v>71.99999999999996</v>
       </c>
       <c r="K354" t="n">
-        <v>15.38461538461542</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>26.31000000000002</v>
@@ -18333,7 +18355,7 @@
         <v>72.19999999999996</v>
       </c>
       <c r="K355" t="n">
-        <v>7.142857142857216</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>26.29000000000002</v>
@@ -18384,7 +18406,7 @@
         <v>72.29999999999995</v>
       </c>
       <c r="K356" t="n">
-        <v>-3.703703703703753</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L356" t="n">
         <v>26.28000000000002</v>
@@ -18435,7 +18457,7 @@
         <v>72.29999999999995</v>
       </c>
       <c r="K357" t="n">
-        <v>8.333333333333284</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L357" t="n">
         <v>26.25000000000002</v>
@@ -18486,7 +18508,7 @@
         <v>72.69999999999996</v>
       </c>
       <c r="K358" t="n">
-        <v>-7.142857142857088</v>
+        <v>-69.23076923076927</v>
       </c>
       <c r="L358" t="n">
         <v>26.18000000000002</v>
@@ -18537,7 +18559,7 @@
         <v>72.79999999999995</v>
       </c>
       <c r="K359" t="n">
-        <v>-10.3448275862069</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L359" t="n">
         <v>26.08000000000002</v>
@@ -18588,7 +18610,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K360" t="n">
-        <v>-36.00000000000009</v>
+        <v>-73.33333333333412</v>
       </c>
       <c r="L360" t="n">
         <v>25.97000000000002</v>
@@ -18639,7 +18661,7 @@
         <v>72.99999999999994</v>
       </c>
       <c r="K361" t="n">
-        <v>-43.99999999999991</v>
+        <v>-69.23076923077002</v>
       </c>
       <c r="L361" t="n">
         <v>25.85000000000002</v>
@@ -18690,7 +18712,7 @@
         <v>72.99999999999994</v>
       </c>
       <c r="K362" t="n">
-        <v>-39.13043478260868</v>
+        <v>-66.66666666666737</v>
       </c>
       <c r="L362" t="n">
         <v>25.76000000000002</v>
@@ -18741,7 +18763,7 @@
         <v>73.09999999999994</v>
       </c>
       <c r="K363" t="n">
-        <v>-33.33333333333348</v>
+        <v>-81.81818181818349</v>
       </c>
       <c r="L363" t="n">
         <v>25.69000000000002</v>
@@ -18792,7 +18814,7 @@
         <v>73.19999999999993</v>
       </c>
       <c r="K364" t="n">
-        <v>-33.33333333333368</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L364" t="n">
         <v>25.61000000000001</v>
@@ -18843,7 +18865,7 @@
         <v>73.19999999999993</v>
       </c>
       <c r="K365" t="n">
-        <v>-33.33333333333368</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L365" t="n">
         <v>25.55000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>73.29999999999993</v>
       </c>
       <c r="K366" t="n">
-        <v>-21.7391304347829</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L366" t="n">
         <v>25.51000000000001</v>
@@ -18945,7 +18967,7 @@
         <v>73.59999999999992</v>
       </c>
       <c r="K367" t="n">
-        <v>-16.66666666666701</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L367" t="n">
         <v>25.50000000000001</v>
@@ -18996,7 +19018,7 @@
         <v>73.69999999999993</v>
       </c>
       <c r="K368" t="n">
-        <v>-12.00000000000017</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L368" t="n">
         <v>25.54000000000001</v>
@@ -19047,7 +19069,7 @@
         <v>74.09999999999994</v>
       </c>
       <c r="K369" t="n">
-        <v>-3.703703703703792</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L369" t="n">
         <v>25.63000000000001</v>
@@ -19098,7 +19120,7 @@
         <v>74.29999999999994</v>
       </c>
       <c r="K370" t="n">
-        <v>-10.344827586207</v>
+        <v>69.23076923076927</v>
       </c>
       <c r="L370" t="n">
         <v>25.71000000000002</v>
@@ -19149,7 +19171,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K371" t="n">
-        <v>-18.7500000000002</v>
+        <v>37.5</v>
       </c>
       <c r="L371" t="n">
         <v>25.77000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K372" t="n">
-        <v>-10.344827586207</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>25.83000000000001</v>
@@ -19251,7 +19273,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K373" t="n">
-        <v>-7.142857142857288</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L373" t="n">
         <v>25.88000000000001</v>
@@ -19302,7 +19324,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K374" t="n">
-        <v>-15.38461538461559</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L374" t="n">
         <v>25.92000000000001</v>
@@ -19353,7 +19375,7 @@
         <v>74.99999999999994</v>
       </c>
       <c r="K375" t="n">
-        <v>7.14285714285716</v>
+        <v>41.17647058823484</v>
       </c>
       <c r="L375" t="n">
         <v>26.00000000000001</v>
@@ -19404,7 +19426,7 @@
         <v>75.59999999999994</v>
       </c>
       <c r="K376" t="n">
-        <v>-9.090909090909159</v>
+        <v>-9.999999999999893</v>
       </c>
       <c r="L376" t="n">
         <v>26.01</v>
@@ -19455,7 +19477,7 @@
         <v>75.59999999999994</v>
       </c>
       <c r="K377" t="n">
-        <v>-9.090909090909159</v>
+        <v>-15.78947368421052</v>
       </c>
       <c r="L377" t="n">
         <v>25.99</v>
@@ -19506,7 +19528,7 @@
         <v>75.79999999999994</v>
       </c>
       <c r="K378" t="n">
-        <v>9.67741935483868</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L378" t="n">
         <v>25.98</v>
@@ -19557,7 +19579,7 @@
         <v>75.79999999999994</v>
       </c>
       <c r="K379" t="n">
-        <v>13.33333333333335</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L379" t="n">
         <v>25.93</v>
@@ -19608,7 +19630,7 @@
         <v>75.79999999999994</v>
       </c>
       <c r="K380" t="n">
-        <v>17.24137931034488</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>25.9</v>
@@ -19659,7 +19681,7 @@
         <v>75.89999999999993</v>
       </c>
       <c r="K381" t="n">
-        <v>17.24137931034488</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L381" t="n">
         <v>25.89</v>
@@ -19710,7 +19732,7 @@
         <v>75.99999999999993</v>
       </c>
       <c r="K382" t="n">
-        <v>20.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>25.89</v>
@@ -19761,7 +19783,7 @@
         <v>75.99999999999993</v>
       </c>
       <c r="K383" t="n">
-        <v>17.24137931034488</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>25.89</v>
@@ -19812,7 +19834,7 @@
         <v>75.99999999999993</v>
       </c>
       <c r="K384" t="n">
-        <v>14.28571428571425</v>
+        <v>-40.00000000000078</v>
       </c>
       <c r="L384" t="n">
         <v>25.89</v>
@@ -19863,7 +19885,7 @@
         <v>75.99999999999993</v>
       </c>
       <c r="K385" t="n">
-        <v>14.28571428571425</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L385" t="n">
         <v>25.85</v>
@@ -19914,7 +19936,7 @@
         <v>76.09999999999992</v>
       </c>
       <c r="K386" t="n">
-        <v>7.142857142857125</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L386" t="n">
         <v>25.86</v>
@@ -19965,7 +19987,7 @@
         <v>76.09999999999992</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.999999999999915</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L387" t="n">
         <v>25.87</v>
@@ -20016,7 +20038,7 @@
         <v>76.19999999999992</v>
       </c>
       <c r="K388" t="n">
-        <v>-4.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>25.87</v>
@@ -20067,7 +20089,7 @@
         <v>76.39999999999992</v>
       </c>
       <c r="K389" t="n">
-        <v>-30.43478260869585</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L389" t="n">
         <v>25.85</v>
@@ -20118,7 +20140,7 @@
         <v>76.59999999999992</v>
       </c>
       <c r="K390" t="n">
-        <v>-13.04347826086969</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L390" t="n">
         <v>25.85</v>
@@ -20169,7 +20191,7 @@
         <v>76.89999999999992</v>
       </c>
       <c r="K391" t="n">
-        <v>13.04347826086969</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L391" t="n">
         <v>25.89</v>
@@ -20220,7 +20242,7 @@
         <v>76.89999999999992</v>
       </c>
       <c r="K392" t="n">
-        <v>13.04347826086969</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L392" t="n">
         <v>25.92000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>76.99999999999991</v>
       </c>
       <c r="K393" t="n">
-        <v>16.66666666666691</v>
+        <v>40.00000000000078</v>
       </c>
       <c r="L393" t="n">
         <v>25.96000000000001</v>
@@ -20322,7 +20344,7 @@
         <v>77.59999999999991</v>
       </c>
       <c r="K394" t="n">
-        <v>-6.666666666666707</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L394" t="n">
         <v>25.94000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>78.09999999999991</v>
       </c>
       <c r="K395" t="n">
-        <v>-3.225806451612984</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L395" t="n">
         <v>25.97000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>78.09999999999991</v>
       </c>
       <c r="K396" t="n">
-        <v>20.00000000000023</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L396" t="n">
         <v>26.01000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>78.09999999999991</v>
       </c>
       <c r="K397" t="n">
-        <v>20.00000000000023</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L397" t="n">
         <v>26.05</v>
@@ -20526,7 +20548,7 @@
         <v>78.09999999999991</v>
       </c>
       <c r="K398" t="n">
-        <v>13.04347826086977</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L398" t="n">
         <v>26.08000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>78.09999999999991</v>
       </c>
       <c r="K399" t="n">
-        <v>13.04347826086977</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L399" t="n">
         <v>26.13000000000001</v>
@@ -20628,7 +20650,7 @@
         <v>78.49999999999991</v>
       </c>
       <c r="K400" t="n">
-        <v>-3.70370370370366</v>
+        <v>-25</v>
       </c>
       <c r="L400" t="n">
         <v>26.12000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>78.79999999999991</v>
       </c>
       <c r="K401" t="n">
-        <v>10.344827586207</v>
+        <v>-5.263157894736754</v>
       </c>
       <c r="L401" t="n">
         <v>26.11000000000001</v>
@@ -20730,7 +20752,7 @@
         <v>78.79999999999991</v>
       </c>
       <c r="K402" t="n">
-        <v>7.142857142857288</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L402" t="n">
         <v>26.10000000000002</v>
@@ -20781,7 +20803,7 @@
         <v>78.79999999999991</v>
       </c>
       <c r="K403" t="n">
-        <v>7.142857142857288</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L403" t="n">
         <v>26.08000000000002</v>
@@ -20832,7 +20854,7 @@
         <v>78.79999999999991</v>
       </c>
       <c r="K404" t="n">
-        <v>7.142857142857288</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L404" t="n">
         <v>26.12000000000002</v>
@@ -20883,7 +20905,7 @@
         <v>78.79999999999991</v>
       </c>
       <c r="K405" t="n">
-        <v>7.142857142857288</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L405" t="n">
         <v>26.11000000000002</v>
@@ -20934,7 +20956,7 @@
         <v>78.89999999999991</v>
       </c>
       <c r="K406" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>26.11000000000002</v>
@@ -20985,7 +21007,7 @@
         <v>78.89999999999991</v>
       </c>
       <c r="K407" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>26.11000000000002</v>
@@ -21036,7 +21058,7 @@
         <v>78.9999999999999</v>
       </c>
       <c r="K408" t="n">
-        <v>7.142857142857288</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L408" t="n">
         <v>26.10000000000003</v>
@@ -21087,7 +21109,7 @@
         <v>79.09999999999991</v>
       </c>
       <c r="K409" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L409" t="n">
         <v>26.08000000000003</v>
@@ -21138,7 +21160,7 @@
         <v>79.1999999999999</v>
       </c>
       <c r="K410" t="n">
-        <v>7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>26.11000000000003</v>
@@ -21189,7 +21211,7 @@
         <v>79.4999999999999</v>
       </c>
       <c r="K411" t="n">
-        <v>7.692307692307724</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L411" t="n">
         <v>26.14000000000003</v>
@@ -21240,7 +21262,7 @@
         <v>80.09999999999989</v>
       </c>
       <c r="K412" t="n">
-        <v>-12.50000000000006</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L412" t="n">
         <v>26.11000000000002</v>
@@ -21291,7 +21313,7 @@
         <v>80.39999999999989</v>
       </c>
       <c r="K413" t="n">
-        <v>-5.88235294117649</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>26.11000000000002</v>
@@ -21342,7 +21364,7 @@
         <v>80.39999999999989</v>
       </c>
       <c r="K414" t="n">
-        <v>14.28571428571445</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>26.11000000000002</v>
@@ -21393,7 +21415,7 @@
         <v>80.59999999999989</v>
       </c>
       <c r="K415" t="n">
-        <v>-12.0000000000001</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L415" t="n">
         <v>26.09000000000002</v>
@@ -21444,7 +21466,7 @@
         <v>80.6999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.692307692307682</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L416" t="n">
         <v>26.07000000000002</v>
@@ -21495,7 +21517,7 @@
         <v>80.6999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.692307692307682</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L417" t="n">
         <v>26.05000000000002</v>
@@ -21546,7 +21568,7 @@
         <v>80.6999999999999</v>
       </c>
       <c r="K418" t="n">
-        <v>-7.692307692307682</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>26.04000000000002</v>
@@ -21597,7 +21619,7 @@
         <v>80.7999999999999</v>
       </c>
       <c r="K419" t="n">
-        <v>-11.11111111111118</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L419" t="n">
         <v>26.03000000000002</v>
@@ -21648,7 +21670,7 @@
         <v>80.89999999999989</v>
       </c>
       <c r="K420" t="n">
-        <v>8.333333333333384</v>
+        <v>-28.57142857142864</v>
       </c>
       <c r="L420" t="n">
         <v>26.02000000000002</v>
@@ -21699,7 +21721,7 @@
         <v>80.89999999999989</v>
       </c>
       <c r="K421" t="n">
-        <v>-4.761904761904875</v>
+        <v>25</v>
       </c>
       <c r="L421" t="n">
         <v>25.98000000000002</v>
@@ -21750,7 +21772,7 @@
         <v>80.89999999999989</v>
       </c>
       <c r="K422" t="n">
-        <v>-4.761904761904875</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L422" t="n">
         <v>26.00000000000002</v>
@@ -21801,7 +21823,7 @@
         <v>80.89999999999989</v>
       </c>
       <c r="K423" t="n">
-        <v>-4.761904761904875</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L423" t="n">
         <v>25.99000000000002</v>
@@ -21852,7 +21874,7 @@
         <v>80.99999999999989</v>
       </c>
       <c r="K424" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>25.97000000000001</v>
@@ -21903,7 +21925,7 @@
         <v>80.99999999999989</v>
       </c>
       <c r="K425" t="n">
-        <v>-9.090909090909326</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L425" t="n">
         <v>25.97000000000001</v>
@@ -21954,7 +21976,7 @@
         <v>80.99999999999989</v>
       </c>
       <c r="K426" t="n">
-        <v>-14.28571428571445</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L426" t="n">
         <v>25.96000000000001</v>
@@ -22005,7 +22027,7 @@
         <v>81.09999999999988</v>
       </c>
       <c r="K427" t="n">
-        <v>-9.090909090909165</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>25.96000000000001</v>
@@ -22056,7 +22078,7 @@
         <v>81.29999999999988</v>
       </c>
       <c r="K428" t="n">
-        <v>4.347826086956461</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L428" t="n">
         <v>25.98000000000001</v>
@@ -22107,7 +22129,7 @@
         <v>81.29999999999988</v>
       </c>
       <c r="K429" t="n">
-        <v>9.090909090909165</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L429" t="n">
         <v>26.01000000000001</v>
@@ -22158,7 +22180,7 @@
         <v>81.49999999999989</v>
       </c>
       <c r="K430" t="n">
-        <v>13.04347826086954</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L430" t="n">
         <v>26.05</v>
@@ -22209,7 +22231,7 @@
         <v>81.49999999999989</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L431" t="n">
         <v>26.09</v>
@@ -22260,7 +22282,7 @@
         <v>81.49999999999989</v>
       </c>
       <c r="K432" t="n">
-        <v>42.85714285714297</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L432" t="n">
         <v>26.13</v>
@@ -22311,7 +22333,7 @@
         <v>81.79999999999988</v>
       </c>
       <c r="K433" t="n">
-        <v>42.85714285714297</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L433" t="n">
         <v>26.2</v>
@@ -22362,7 +22384,7 @@
         <v>82.09999999999988</v>
       </c>
       <c r="K434" t="n">
-        <v>17.64705882352936</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L434" t="n">
         <v>26.25</v>
@@ -22413,7 +22435,7 @@
         <v>82.19999999999987</v>
       </c>
       <c r="K435" t="n">
-        <v>25.00000000000044</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L435" t="n">
         <v>26.29</v>
@@ -22464,7 +22486,7 @@
         <v>82.29999999999987</v>
       </c>
       <c r="K436" t="n">
-        <v>25.00000000000044</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L436" t="n">
         <v>26.34</v>
@@ -22515,7 +22537,7 @@
         <v>82.29999999999987</v>
       </c>
       <c r="K437" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000021</v>
       </c>
       <c r="L437" t="n">
         <v>26.38</v>
@@ -22566,7 +22588,7 @@
         <v>82.39999999999986</v>
       </c>
       <c r="K438" t="n">
-        <v>29.41176470588304</v>
+        <v>27.27272727272783</v>
       </c>
       <c r="L438" t="n">
         <v>26.41</v>
@@ -22617,7 +22639,7 @@
         <v>82.49999999999986</v>
       </c>
       <c r="K439" t="n">
-        <v>41.17647058823643</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L439" t="n">
         <v>26.45000000000001</v>
@@ -22668,7 +22690,7 @@
         <v>82.49999999999986</v>
       </c>
       <c r="K440" t="n">
-        <v>37.50000000000089</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L440" t="n">
         <v>26.47000000000001</v>
@@ -22719,7 +22741,7 @@
         <v>82.79999999999986</v>
       </c>
       <c r="K441" t="n">
-        <v>15.78947368421087</v>
+        <v>-7.692307692307714</v>
       </c>
       <c r="L441" t="n">
         <v>26.46000000000002</v>
@@ -22770,7 +22792,7 @@
         <v>83.39999999999985</v>
       </c>
       <c r="K442" t="n">
-        <v>36.00000000000056</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L442" t="n">
         <v>26.51000000000001</v>
@@ -22821,7 +22843,7 @@
         <v>83.39999999999985</v>
       </c>
       <c r="K443" t="n">
-        <v>36.00000000000056</v>
+        <v>38.46153846153938</v>
       </c>
       <c r="L443" t="n">
         <v>26.53000000000001</v>
@@ -22872,7 +22894,7 @@
         <v>83.49999999999984</v>
       </c>
       <c r="K444" t="n">
-        <v>36.0000000000007</v>
+        <v>38.46153846153938</v>
       </c>
       <c r="L444" t="n">
         <v>26.57000000000001</v>
@@ -22923,7 +22945,7 @@
         <v>83.59999999999984</v>
       </c>
       <c r="K445" t="n">
-        <v>38.46153846153918</v>
+        <v>38.46153846153938</v>
       </c>
       <c r="L445" t="n">
         <v>26.63000000000001</v>
@@ -22974,7 +22996,7 @@
         <v>83.79999999999984</v>
       </c>
       <c r="K446" t="n">
-        <v>28.57142857142906</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L446" t="n">
         <v>26.66000000000001</v>
@@ -23025,7 +23047,7 @@
         <v>83.99999999999984</v>
       </c>
       <c r="K447" t="n">
-        <v>31.03448275862104</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L447" t="n">
         <v>26.71000000000002</v>
@@ -23076,7 +23098,7 @@
         <v>83.99999999999984</v>
       </c>
       <c r="K448" t="n">
-        <v>25.92592592592628</v>
+        <v>20</v>
       </c>
       <c r="L448" t="n">
         <v>26.75000000000001</v>
@@ -23127,7 +23149,7 @@
         <v>83.99999999999984</v>
       </c>
       <c r="K449" t="n">
-        <v>25.92592592592628</v>
+        <v>20</v>
       </c>
       <c r="L449" t="n">
         <v>26.78000000000001</v>
@@ -23178,7 +23200,7 @@
         <v>84.09999999999984</v>
       </c>
       <c r="K450" t="n">
-        <v>15.38461538461575</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L450" t="n">
         <v>26.8</v>
@@ -23229,7 +23251,7 @@
         <v>84.19999999999983</v>
       </c>
       <c r="K451" t="n">
-        <v>18.51851851851889</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>26.86</v>
@@ -23280,7 +23302,7 @@
         <v>84.29999999999983</v>
       </c>
       <c r="K452" t="n">
-        <v>14.28571428571466</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L452" t="n">
         <v>26.85</v>
@@ -23335,7 +23357,7 @@
         <v>84.39999999999982</v>
       </c>
       <c r="K453" t="n">
-        <v>7.69230769230785</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L453" t="n">
         <v>26.85</v>
@@ -23392,7 +23414,7 @@
         <v>84.39999999999982</v>
       </c>
       <c r="K454" t="n">
-        <v>21.73913043478317</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>26.86</v>
@@ -23451,7 +23473,7 @@
         <v>84.49999999999982</v>
       </c>
       <c r="K455" t="n">
-        <v>21.73913043478317</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L455" t="n">
         <v>26.85</v>
@@ -23512,7 +23534,7 @@
         <v>84.59999999999981</v>
       </c>
       <c r="K456" t="n">
-        <v>21.73913043478317</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>26.87</v>
@@ -23573,7 +23595,7 @@
         <v>84.6999999999998</v>
       </c>
       <c r="K457" t="n">
-        <v>16.66666666666721</v>
+        <v>-14.28571428571479</v>
       </c>
       <c r="L457" t="n">
         <v>26.86000000000001</v>
@@ -23634,7 +23656,7 @@
         <v>84.89999999999981</v>
       </c>
       <c r="K458" t="n">
-        <v>4.000000000000147</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L458" t="n">
         <v>26.83000000000001</v>
@@ -23695,7 +23717,7 @@
         <v>84.9999999999998</v>
       </c>
       <c r="K459" t="n">
-        <v>4.000000000000005</v>
+        <v>-11.11111111111173</v>
       </c>
       <c r="L459" t="n">
         <v>26.81000000000001</v>
@@ -23756,7 +23778,7 @@
         <v>84.9999999999998</v>
       </c>
       <c r="K460" t="n">
-        <v>4.000000000000005</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L460" t="n">
         <v>26.80000000000001</v>
@@ -23817,7 +23839,7 @@
         <v>84.9999999999998</v>
       </c>
       <c r="K461" t="n">
-        <v>18.18181818181856</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L461" t="n">
         <v>26.78000000000001</v>
@@ -23878,7 +23900,7 @@
         <v>84.9999999999998</v>
       </c>
       <c r="K462" t="n">
-        <v>-12.50000000000033</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L462" t="n">
         <v>26.77000000000001</v>
@@ -23939,7 +23961,7 @@
         <v>85.4999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>-33.33333333333407</v>
+        <v>-63.63636363636472</v>
       </c>
       <c r="L463" t="n">
         <v>26.70000000000001</v>
@@ -23998,7 +24020,7 @@
         <v>85.89999999999981</v>
       </c>
       <c r="K464" t="n">
-        <v>-8.333333333333432</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L464" t="n">
         <v>26.67000000000002</v>
@@ -24055,7 +24077,7 @@
         <v>86.09999999999981</v>
       </c>
       <c r="K465" t="n">
-        <v>-20.00000000000023</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>26.63000000000001</v>
@@ -24112,7 +24134,7 @@
         <v>86.29999999999981</v>
       </c>
       <c r="K466" t="n">
-        <v>-3.99999999999996</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L466" t="n">
         <v>26.60000000000002</v>
@@ -24169,7 +24191,7 @@
         <v>86.29999999999981</v>
       </c>
       <c r="K467" t="n">
-        <v>-13.04347826086962</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>26.58000000000002</v>
@@ -24226,7 +24248,7 @@
         <v>86.49999999999982</v>
       </c>
       <c r="K468" t="n">
-        <v>-20.00000000000023</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L468" t="n">
         <v>26.56000000000001</v>
@@ -24283,7 +24305,7 @@
         <v>86.49999999999982</v>
       </c>
       <c r="K469" t="n">
-        <v>-20.00000000000023</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L469" t="n">
         <v>26.53000000000001</v>
@@ -24340,7 +24362,7 @@
         <v>86.69999999999982</v>
       </c>
       <c r="K470" t="n">
-        <v>-7.692307692307724</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L470" t="n">
         <v>26.52000000000002</v>
@@ -24397,7 +24419,7 @@
         <v>87.09999999999982</v>
       </c>
       <c r="K471" t="n">
-        <v>-24.1379310344828</v>
+        <v>-23.80952380952355</v>
       </c>
       <c r="L471" t="n">
         <v>26.47000000000002</v>
@@ -24454,7 +24476,7 @@
         <v>87.49999999999983</v>
       </c>
       <c r="K472" t="n">
-        <v>-6.249999999999972</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L472" t="n">
         <v>26.46000000000002</v>
@@ -24505,7 +24527,7 @@
         <v>87.49999999999983</v>
       </c>
       <c r="K473" t="n">
-        <v>-9.677419354838591</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>26.50000000000002</v>
@@ -24556,7 +24578,7 @@
         <v>87.49999999999983</v>
       </c>
       <c r="K474" t="n">
-        <v>-9.677419354838591</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L474" t="n">
         <v>26.50000000000002</v>
@@ -24607,7 +24629,7 @@
         <v>87.59999999999982</v>
       </c>
       <c r="K475" t="n">
-        <v>-9.677419354838706</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L475" t="n">
         <v>26.51000000000003</v>
@@ -24658,7 +24680,7 @@
         <v>87.69999999999982</v>
       </c>
       <c r="K476" t="n">
-        <v>-9.677419354838591</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>26.51000000000003</v>
@@ -24709,7 +24731,7 @@
         <v>88.09999999999982</v>
       </c>
       <c r="K477" t="n">
-        <v>-17.64705882352935</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L477" t="n">
         <v>26.47000000000002</v>
@@ -24760,7 +24782,7 @@
         <v>88.39999999999982</v>
       </c>
       <c r="K478" t="n">
-        <v>-2.857142857142886</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L478" t="n">
         <v>26.48000000000003</v>
@@ -24811,7 +24833,7 @@
         <v>88.79999999999981</v>
       </c>
       <c r="K479" t="n">
-        <v>-15.78947368421042</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L479" t="n">
         <v>26.45000000000003</v>
@@ -24862,7 +24884,7 @@
         <v>89.09999999999981</v>
       </c>
       <c r="K480" t="n">
-        <v>-7.317073170731709</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L480" t="n">
         <v>26.43000000000002</v>
@@ -24913,7 +24935,7 @@
         <v>89.29999999999981</v>
       </c>
       <c r="K481" t="n">
-        <v>-11.62790697674416</v>
+        <v>-22.22222222222255</v>
       </c>
       <c r="L481" t="n">
         <v>26.43000000000002</v>
@@ -24964,7 +24986,7 @@
         <v>89.39999999999981</v>
       </c>
       <c r="K482" t="n">
-        <v>-9.090909090909047</v>
+        <v>-15.78947368421075</v>
       </c>
       <c r="L482" t="n">
         <v>26.40000000000002</v>

--- a/BackTest/2019-11-02 BackTest OGO.xlsx
+++ b/BackTest/2019-11-02 BackTest OGO.xlsx
@@ -1505,14 +1505,12 @@
         <v>26.51333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>25.9</v>
       </c>
@@ -1683,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="K36" t="n">
         <v>25.9</v>
@@ -1726,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="K37" t="n">
         <v>25.9</v>
@@ -1763,14 +1761,12 @@
         <v>26.47666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>25.9</v>
       </c>
@@ -1806,14 +1802,12 @@
         <v>26.46833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>25.9</v>
       </c>
@@ -1849,14 +1843,12 @@
         <v>26.46</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>25.9</v>
       </c>
@@ -1892,14 +1884,12 @@
         <v>26.45333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>25.9</v>
       </c>
@@ -1935,14 +1925,12 @@
         <v>26.445</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>25.9</v>
       </c>
@@ -3334,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -3342,11 +3330,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>1.099247104247104</v>
       </c>
     </row>
     <row r="77">
@@ -3378,14 +3366,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3401,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3460,14 +3436,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3498,19 +3468,13 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1.188050193050193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3539,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3574,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -12041,14 +12005,20 @@
         <v>26.93666666666664</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>25.9</v>
+      </c>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12076,14 +12046,20 @@
         <v>26.91999999999997</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>25.8</v>
+      </c>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12111,14 +12087,20 @@
         <v>26.89999999999997</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12146,14 +12128,20 @@
         <v>26.87833333333331</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12181,14 +12169,20 @@
         <v>26.84999999999997</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12216,14 +12210,20 @@
         <v>26.81999999999998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>25.8</v>
+      </c>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12258,7 +12258,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +12297,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12328,7 +12336,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12363,7 +12375,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12398,7 +12414,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12433,7 +12453,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12468,7 +12492,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12503,7 +12531,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12538,7 +12570,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12573,7 +12609,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12601,18 +12641,16 @@
         <v>26.49499999999997</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M340" t="n">
@@ -12642,14 +12680,12 @@
         <v>26.47999999999997</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12683,14 +12719,12 @@
         <v>26.46499999999997</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -13348,14 +13382,12 @@
         <v>26.2333333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13389,14 +13421,12 @@
         <v>26.21166666666664</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13430,14 +13460,12 @@
         <v>26.1883333333333</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13471,14 +13499,12 @@
         <v>26.16499999999997</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>25.3</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13512,14 +13538,12 @@
         <v>26.14499999999997</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13553,14 +13577,12 @@
         <v>26.12666666666664</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13594,14 +13616,12 @@
         <v>26.10833333333331</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>25.4</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13635,14 +13655,12 @@
         <v>26.09333333333331</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13676,14 +13694,12 @@
         <v>26.07666666666664</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13717,14 +13733,12 @@
         <v>26.05999999999997</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13758,14 +13772,12 @@
         <v>26.05833333333331</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>26</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13799,14 +13811,12 @@
         <v>26.04666666666664</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13840,14 +13850,12 @@
         <v>26.03499999999998</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13881,14 +13889,12 @@
         <v>26.02499999999998</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13922,14 +13928,12 @@
         <v>26.01499999999998</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13963,14 +13967,12 @@
         <v>26.00833333333332</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -14004,14 +14006,12 @@
         <v>26.00833333333332</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14045,14 +14045,12 @@
         <v>25.99833333333332</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14086,14 +14084,12 @@
         <v>25.99166666666665</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>25.7</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14127,14 +14123,12 @@
         <v>25.98166666666665</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14168,14 +14162,12 @@
         <v>25.97833333333332</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14209,14 +14201,12 @@
         <v>25.97499999999999</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14250,14 +14240,12 @@
         <v>25.96166666666666</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14291,14 +14279,12 @@
         <v>25.95999999999999</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14332,14 +14318,12 @@
         <v>25.95999999999999</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14373,14 +14357,12 @@
         <v>25.96166666666666</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14414,14 +14396,12 @@
         <v>25.95666666666666</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14455,14 +14435,12 @@
         <v>25.95</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14496,14 +14474,12 @@
         <v>25.94333333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14537,14 +14513,12 @@
         <v>25.945</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14578,14 +14552,12 @@
         <v>25.94333333333333</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14619,14 +14591,12 @@
         <v>25.945</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14660,14 +14630,12 @@
         <v>25.95166666666667</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14701,14 +14669,12 @@
         <v>25.95833333333334</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14742,14 +14708,12 @@
         <v>25.96166666666667</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14783,14 +14747,12 @@
         <v>25.95833333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14824,14 +14786,12 @@
         <v>25.96333333333333</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -14865,14 +14825,12 @@
         <v>25.96500000000001</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -14906,14 +14864,12 @@
         <v>25.97166666666667</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -14947,14 +14903,12 @@
         <v>25.97833333333334</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
@@ -14988,14 +14942,12 @@
         <v>25.98500000000001</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
@@ -15029,14 +14981,12 @@
         <v>25.97666666666668</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
@@ -15070,14 +15020,12 @@
         <v>25.97166666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
@@ -15111,14 +15059,12 @@
         <v>25.97000000000001</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
@@ -15152,14 +15098,12 @@
         <v>25.96833333333334</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
@@ -15193,14 +15137,12 @@
         <v>25.965</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
@@ -15234,14 +15176,12 @@
         <v>25.96166666666667</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
@@ -15275,14 +15215,12 @@
         <v>25.96333333333333</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
@@ -15316,14 +15254,12 @@
         <v>25.96166666666667</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
@@ -15357,14 +15293,12 @@
         <v>25.95833333333334</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
@@ -15398,14 +15332,12 @@
         <v>25.95</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>26</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
@@ -15439,14 +15371,12 @@
         <v>25.94333333333334</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>26</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
@@ -15480,14 +15410,12 @@
         <v>25.94166666666667</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
@@ -15521,14 +15449,12 @@
         <v>25.935</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
@@ -15562,14 +15488,12 @@
         <v>25.935</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>26</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
@@ -15603,14 +15527,12 @@
         <v>25.93166666666667</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
@@ -15644,14 +15566,12 @@
         <v>25.92833333333334</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -15685,14 +15605,12 @@
         <v>25.92833333333334</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>26</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -15726,14 +15644,12 @@
         <v>25.92833333333334</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>26</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -15767,14 +15683,12 @@
         <v>25.93500000000001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>26</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -15808,14 +15722,12 @@
         <v>25.94166666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>26</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -15849,14 +15761,12 @@
         <v>25.95166666666667</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>26</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -15890,14 +15800,12 @@
         <v>25.96333333333334</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>26</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -15931,14 +15839,12 @@
         <v>25.97500000000001</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>26</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
@@ -15972,14 +15878,12 @@
         <v>25.98500000000001</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>26</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
@@ -16013,14 +15917,12 @@
         <v>25.99166666666667</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -16054,14 +15956,12 @@
         <v>25.99833333333334</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -16095,14 +15995,12 @@
         <v>26.00333333333334</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>26</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -16136,14 +16034,12 @@
         <v>26.00500000000001</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>26</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -16177,14 +16073,12 @@
         <v>26.00833333333334</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -16218,14 +16112,12 @@
         <v>26.00500000000001</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
@@ -16259,14 +16151,12 @@
         <v>26.00833333333334</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -16300,14 +16190,12 @@
         <v>26.01666666666668</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -16341,14 +16229,12 @@
         <v>26.02500000000001</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
@@ -16382,14 +16268,12 @@
         <v>26.03833333333334</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
@@ -16423,14 +16307,12 @@
         <v>26.04666666666668</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -16464,14 +16346,12 @@
         <v>26.04666666666668</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -16505,14 +16385,12 @@
         <v>26.05833333333334</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -16546,14 +16424,12 @@
         <v>26.07000000000001</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>

--- a/BackTest/2019-11-02 BackTest OGO.xlsx
+++ b/BackTest/2019-11-02 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>506735.0057000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>506335.0057000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>506826.1053000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>506826.1053000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>506826.1053000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>551250.9534000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,15 @@
         <v>551564.3862000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>26.7</v>
       </c>
       <c r="J8" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.7</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,17 +686,15 @@
         <v>770782.4557622224</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -763,17 +725,15 @@
         <v>770782.4557622224</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -804,19 +764,11 @@
         <v>770782.4557622224</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +797,11 @@
         <v>767737.3585622224</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +830,11 @@
         <v>856857.1375622224</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +863,11 @@
         <v>804903.2647622224</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +896,11 @@
         <v>816825.2647622224</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1009,19 +929,11 @@
         <v>813092.1854622224</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,19 +962,11 @@
         <v>781072.9376622224</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,19 +995,11 @@
         <v>781072.9376622224</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,19 +1028,11 @@
         <v>781082.9376622224</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1173,19 +1061,11 @@
         <v>792827.5830622225</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1094,11 @@
         <v>792865.1770471849</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1127,11 @@
         <v>789365.1770471849</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1160,11 @@
         <v>774606.1876471849</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1193,11 @@
         <v>739421.0213471849</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1381,14 +1229,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1420,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1459,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1498,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1537,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1576,14 +1394,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1615,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1654,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1693,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1732,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1771,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1810,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1849,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1888,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1927,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1966,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2005,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2044,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2083,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2122,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2161,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2200,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2239,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2278,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2317,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2356,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2395,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2434,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2473,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2512,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2590,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2629,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2668,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2707,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2746,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2824,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2863,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2902,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2941,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2980,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3058,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3097,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3136,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3175,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3214,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3253,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3292,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3331,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3370,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3409,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3448,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3487,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3526,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3565,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3604,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3643,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3682,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3721,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3757,19 +3239,11 @@
         <v>559834.1664680096</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3801,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3840,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3879,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3918,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3957,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3996,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4035,14 +3473,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4074,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4110,19 +3536,11 @@
         <v>605300.2860680096</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4193,14 +3605,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4622,14 +3968,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +4001,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4739,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4199,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4934,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4265,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +4298,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5282,19 +4526,13 @@
         <v>419517.8456371544</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.002518796992481</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -5321,7 +4559,7 @@
         <v>433657.6132371544</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5354,7 +4592,7 @@
         <v>433657.6132371544</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5552,7 +4790,7 @@
         <v>912470.966871937</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5585,7 +4823,7 @@
         <v>846237.0286719371</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5618,7 +4856,7 @@
         <v>993647.549871937</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5783,7 +5021,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5816,7 +5054,7 @@
         <v>1514086.743778406</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5849,7 +5087,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5882,7 +5120,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5915,7 +5153,7 @@
         <v>809635.7646864059</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5948,7 +5186,7 @@
         <v>1002627.644486406</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5981,7 +5219,7 @@
         <v>973241.1969864059</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6014,7 +5252,7 @@
         <v>991347.2306864059</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6047,7 +5285,7 @@
         <v>950373.1317864059</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6080,7 +5318,7 @@
         <v>847322.2802864059</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6113,7 +5351,7 @@
         <v>673410.8400864059</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6146,7 +5384,7 @@
         <v>690205.1940864059</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6179,7 +5417,7 @@
         <v>690205.1940864059</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6212,7 +5450,7 @@
         <v>691683.344686406</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6245,7 +5483,7 @@
         <v>673871.8784864059</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6278,7 +5516,7 @@
         <v>817982.996486406</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6311,7 +5549,7 @@
         <v>642642.6602864059</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6344,7 +5582,7 @@
         <v>471786.446086406</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6377,7 +5615,7 @@
         <v>-8805.804513594077</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6410,7 +5648,7 @@
         <v>-232122.4488135941</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6542,7 +5780,7 @@
         <v>118686.8397864059</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6575,7 +5813,7 @@
         <v>361542.4190864059</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6608,7 +5846,7 @@
         <v>473069.9185864059</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6674,7 +5912,7 @@
         <v>157413.7255864059</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6707,7 +5945,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6839,7 +6077,7 @@
         <v>-139752.1998135941</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8423,10 +7661,14 @@
         <v>-876364.4795090006</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -8456,11 +7698,19 @@
         <v>-876364.4795090006</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8489,11 +7739,19 @@
         <v>-876343.3797090006</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8525,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8558,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8591,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8624,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8657,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8690,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8723,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8756,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8789,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8822,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8855,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8888,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8921,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8954,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8987,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9020,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9053,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9086,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9119,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9152,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9185,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9218,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9251,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9284,8 +8680,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9317,8 +8719,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9350,8 +8758,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9383,8 +8797,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9416,8 +8836,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9449,8 +8875,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9482,8 +8914,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9515,8 +8953,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9548,8 +8992,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9581,8 +9031,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9614,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9647,8 +9109,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9680,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9713,8 +9187,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9746,8 +9226,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9776,11 +9262,17 @@
         <v>-687592.1380885943</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9812,8 +9304,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9845,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9878,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9911,8 +9421,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9944,8 +9460,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9977,8 +9499,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10010,8 +9538,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10043,8 +9577,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10076,8 +9616,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10106,11 +9652,19 @@
         <v>-720068.4723885944</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J271" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +9693,19 @@
         <v>-716068.4723885944</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J272" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10172,11 +9734,19 @@
         <v>-752954.2845885945</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10208,8 +9778,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10241,8 +9817,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10274,8 +9856,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10304,11 +9892,19 @@
         <v>-733100.2269885944</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J277" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10337,11 +9933,19 @@
         <v>-553618.0789885945</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J278" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10370,11 +9974,19 @@
         <v>-527222.0789885945</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J279" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10403,11 +10015,19 @@
         <v>-527222.0789885945</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>28</v>
+      </c>
+      <c r="J280" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +10056,19 @@
         <v>-533222.0789885945</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>28</v>
+      </c>
+      <c r="J281" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10472,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10505,8 +10139,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10538,8 +10178,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10571,8 +10217,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10604,8 +10256,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10637,8 +10295,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10667,11 +10331,19 @@
         <v>-409766.5585885943</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J288" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10703,8 +10375,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10736,8 +10414,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10769,8 +10453,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10802,8 +10492,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10835,8 +10531,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10868,8 +10570,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10901,8 +10609,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10934,8 +10648,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10967,8 +10687,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11000,8 +10726,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11033,8 +10765,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11066,8 +10804,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11099,8 +10843,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +10882,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11165,8 +10921,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11198,8 +10960,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11231,8 +10999,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11264,8 +11038,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11297,8 +11077,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11330,8 +11116,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11363,8 +11155,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11396,8 +11194,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11429,8 +11233,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11462,8 +11272,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11495,8 +11311,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11528,8 +11350,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11561,8 +11389,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11594,8 +11428,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11627,8 +11467,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11660,8 +11506,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11693,8 +11545,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11726,8 +11584,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11759,8 +11623,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11792,8 +11662,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11825,8 +11701,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11858,8 +11740,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11891,8 +11779,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11924,8 +11818,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11957,8 +11857,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11990,8 +11896,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12023,8 +11935,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12056,8 +11974,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12089,8 +12013,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12119,11 +12049,17 @@
         <v>-413774.0424885942</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12152,11 +12088,17 @@
         <v>-413774.0424885942</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12185,11 +12127,17 @@
         <v>-438069.0334885942</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12221,8 +12169,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12251,11 +12205,17 @@
         <v>-438069.0334885942</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12284,11 +12244,17 @@
         <v>-428654.0334885942</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12317,11 +12283,17 @@
         <v>-433094.4039885942</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12350,11 +12322,17 @@
         <v>-433094.4039885942</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12383,11 +12361,17 @@
         <v>-433494.4039885942</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12416,11 +12400,17 @@
         <v>-517394.4039885942</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12452,8 +12442,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12485,8 +12481,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12518,8 +12520,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12551,8 +12559,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12584,8 +12598,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12617,8 +12637,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12650,8 +12676,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12683,8 +12715,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12716,8 +12754,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12749,8 +12793,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12782,8 +12832,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12815,8 +12871,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12848,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12881,8 +12949,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12911,11 +12985,17 @@
         <v>-530729.8207885943</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12947,8 +13027,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12977,11 +13063,19 @@
         <v>-530729.8207885943</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J358" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13010,11 +13104,19 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13043,11 +13145,19 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J360" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13076,11 +13186,19 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J361" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13109,11 +13227,19 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J362" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13142,11 +13268,19 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J363" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13175,11 +13309,19 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J364" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13208,11 +13350,19 @@
         <v>-619836.9157885943</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J365" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13241,11 +13391,19 @@
         <v>-619826.9157885943</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J366" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13277,8 +13435,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13310,8 +13474,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13343,8 +13513,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13376,8 +13552,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13409,8 +13591,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13439,15 +13627,17 @@
         <v>-705044.3710885942</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>26.5</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
@@ -13478,12 +13668,14 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>26.5</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13517,10 +13709,14 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J374" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,12 +13750,14 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>26.3</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13593,10 +13791,14 @@
         <v>-745791.6226885942</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J376" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13630,10 +13832,14 @@
         <v>-705805.6524319904</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J377" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13667,10 +13873,14 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J378" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13704,10 +13914,14 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J379" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13741,10 +13955,14 @@
         <v>-703469.1524319904</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J380" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,10 +13996,14 @@
         <v>-727293.3949319904</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J381" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13815,10 +14037,14 @@
         <v>-727813.3949319904</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>26</v>
+      </c>
+      <c r="J382" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13852,10 +14078,14 @@
         <v>-777033.1394319905</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J383" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13889,10 +14119,14 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J384" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13926,10 +14160,14 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J385" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13963,10 +14201,14 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J386" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14000,10 +14242,14 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J387" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,10 +14283,14 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J388" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14074,10 +14324,14 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J389" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14111,10 +14365,14 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J390" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14148,12 +14406,14 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>25.8</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,12 +14447,14 @@
         <v>-775847.3243319904</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>25.8</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,12 +14488,14 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>26.1</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14265,10 +14529,14 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J394" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,10 +14570,14 @@
         <v>-781440.7746319905</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J395" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,10 +14611,14 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,10 +14652,14 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J397" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14413,10 +14693,14 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J398" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14450,10 +14734,14 @@
         <v>-732969.8332319905</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J399" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,10 +14775,14 @@
         <v>-726477.8332319905</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J400" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14524,10 +14816,14 @@
         <v>-726577.8332319905</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J401" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,10 +14857,14 @@
         <v>-726577.8332319905</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J402" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,10 +14898,14 @@
         <v>-706577.8332319905</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J403" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,7 +14942,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,12 +14978,12 @@
         <v>-719708.3864319904</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J405" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14711,12 +15017,14 @@
         <v>-713470.4001319904</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>26.1</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14750,12 +15058,14 @@
         <v>-713470.4001319904</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>26.3</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,12 +15099,12 @@
         <v>-713460.4001319904</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14828,12 +15138,12 @@
         <v>-713460.4001319904</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,12 +15177,14 @@
         <v>-713460.4001319904</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>26.5</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,7 +15221,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14943,10 +15257,14 @@
         <v>-777437.5278319904</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J412" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14980,10 +15298,14 @@
         <v>-766296.9575319904</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J413" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15017,10 +15339,14 @@
         <v>-796989.5475319903</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J414" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15054,10 +15380,14 @@
         <v>-847248.2487319903</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J415" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,12 +15421,14 @@
         <v>-847248.2487319903</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>26</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,12 +15462,14 @@
         <v>-893136.6267940059</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>26</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,12 +15503,14 @@
         <v>-901038.4675940059</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>25.6</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15208,12 +15544,14 @@
         <v>-902038.4675940059</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>25.5</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,12 +15585,14 @@
         <v>-908440.2720940058</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>25.4</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15286,12 +15626,14 @@
         <v>-908440.2720940058</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>25.3</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15325,12 +15667,14 @@
         <v>-779723.5297940058</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>25.3</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15364,12 +15708,14 @@
         <v>-769710.8517940058</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>25.4</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15403,12 +15749,14 @@
         <v>-769710.8517940058</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>25.5</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,12 +15790,14 @@
         <v>-736440.0518940059</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>25.5</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15481,12 +15831,14 @@
         <v>-734346.0518940059</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>25.6</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15520,12 +15872,14 @@
         <v>-712346.0518940059</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>25.9</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15559,12 +15913,14 @@
         <v>-683397.0518940059</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>26</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15598,10 +15954,14 @@
         <v>-702512.8201940058</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J429" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15635,10 +15995,14 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J430" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15672,10 +16036,14 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J431" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15709,12 +16077,14 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>25.9</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15748,12 +16118,14 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>25.9</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,12 +16159,14 @@
         <v>-794495.3103940058</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>25.9</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15826,12 +16200,14 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>26.3</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15865,12 +16241,14 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>25.7</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15904,12 +16282,14 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>25.7</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15943,12 +16323,14 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>25.9</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15982,12 +16364,14 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>25.9</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16021,12 +16405,14 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>25.9</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16060,12 +16446,14 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>25.8</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16099,12 +16487,14 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>25.9</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16138,12 +16528,14 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>25.9</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16177,12 +16569,14 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>25.9</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,12 +16610,14 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>25.9</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16255,12 +16651,14 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>25.8</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16294,12 +16692,14 @@
         <v>-802240.8563940059</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>25.8</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16333,12 +16733,14 @@
         <v>-839142.835194006</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>25.9</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16372,12 +16774,14 @@
         <v>-805142.835194006</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>25.7</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16411,12 +16815,14 @@
         <v>-798892.835194006</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>25.9</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16450,12 +16856,14 @@
         <v>-798892.835194006</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>26.2</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16489,12 +16897,14 @@
         <v>-796892.835194006</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>26.2</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16528,12 +16938,14 @@
         <v>-814725.926494006</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>26.3</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16567,12 +16979,14 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>25.7</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16606,12 +17020,14 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>26.2</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16645,12 +17061,14 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>26.2</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16684,10 +17102,14 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J457" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16721,12 +17143,14 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>26.2</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16760,10 +17184,14 @@
         <v>-821119.2671940059</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J459" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16797,10 +17225,14 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J460" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,10 +17266,14 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J461" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16871,10 +17307,14 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J462" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16908,10 +17348,14 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J463" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16945,10 +17389,14 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J464" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16982,12 +17430,14 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>26.1</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17021,12 +17471,14 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>26.2</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17060,12 +17512,14 @@
         <v>-772307.8999940059</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>26.2</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17099,12 +17553,14 @@
         <v>-772530.8999940059</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>26.1</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17138,12 +17594,14 @@
         <v>-771545.8999940059</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>26</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17177,12 +17635,14 @@
         <v>-678188.4114940059</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>26.1</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17216,12 +17676,14 @@
         <v>-683876.6939940059</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>26.4</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17255,12 +17717,14 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>25.8</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17294,12 +17758,14 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>26.1</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17333,12 +17799,14 @@
         <v>-677966.6939940059</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>26.1</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17372,12 +17840,14 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>25.9</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17411,12 +17881,14 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>26</v>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17450,12 +17922,14 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>26</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17489,12 +17963,14 @@
         <v>-723454.1223940059</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>26</v>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17528,12 +18004,14 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>25.9</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,12 +18045,14 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>26</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17606,12 +18086,14 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>26</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,12 +18127,14 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>26</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17684,12 +18168,14 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>26</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17723,12 +18209,14 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>25.9</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17762,12 +18250,14 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>25.9</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,12 +18291,14 @@
         <v>-712748.3147016981</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>25.9</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17840,12 +18332,14 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>26</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17879,12 +18373,14 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>26.2</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17918,12 +18414,14 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>26.2</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17957,12 +18455,14 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>26.4</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17996,12 +18496,14 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>26.4</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,12 +18537,12 @@
         <v>-609242.5057016981</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J492" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18074,12 +18576,12 @@
         <v>-667211.2478016982</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18113,12 +18615,14 @@
         <v>-678735.3147016981</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>26.4</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18152,12 +18656,14 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>26.3</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18191,12 +18697,14 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>26.4</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18230,12 +18738,14 @@
         <v>-657411.5497016981</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>26.4</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18269,12 +18779,12 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J498" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18308,12 +18818,12 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J499" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18347,12 +18857,12 @@
         <v>-661729.0252016982</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J500" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18386,12 +18896,12 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18425,12 +18935,12 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J502" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18464,12 +18974,12 @@
         <v>-491145.4273016982</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18503,12 +19013,12 @@
         <v>-484280.6876016982</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J504" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18542,12 +19052,12 @@
         <v>-488044.6276016982</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J505" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18581,12 +19091,12 @@
         <v>-488034.6276016982</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J506" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18620,12 +19130,12 @@
         <v>-488034.6276016982</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J507" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18659,12 +19169,12 @@
         <v>-488034.6276016982</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J508" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18698,12 +19208,12 @@
         <v>-489006.6492016982</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J509" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18737,12 +19247,12 @@
         <v>-488976.6492016982</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J510" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18776,12 +19286,12 @@
         <v>-489606.0510016982</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J511" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18815,12 +19325,12 @@
         <v>-488451.4395016982</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J512" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18854,12 +19364,12 @@
         <v>-488451.4395016982</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J513" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18893,12 +19403,12 @@
         <v>-492532.0014016982</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J514" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18932,12 +19442,12 @@
         <v>-492522.0014016982</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18971,12 +19481,12 @@
         <v>-492940.5312016982</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J516" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19010,12 +19520,12 @@
         <v>-494940.5312016982</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J517" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19049,12 +19559,12 @@
         <v>-494930.5312016982</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J518" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19088,12 +19598,12 @@
         <v>-494930.5312016982</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J519" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19127,12 +19637,12 @@
         <v>-494930.5312016982</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J520" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19166,12 +19676,12 @@
         <v>-494930.5312016982</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J521" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19205,12 +19715,14 @@
         <v>-496930.5312016982</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>26.7</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19244,12 +19756,12 @@
         <v>-496920.5312016982</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J523" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19283,12 +19795,14 @@
         <v>-497725.6860016982</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>26.6</v>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19322,12 +19836,14 @@
         <v>-497715.6860016982</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>26.4</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19361,12 +19877,14 @@
         <v>-497715.6860016982</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>26.6</v>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19400,12 +19918,14 @@
         <v>-498261.7960016982</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>26.6</v>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19439,12 +19959,14 @@
         <v>-498261.7960016982</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>26.4</v>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19478,12 +20000,14 @@
         <v>-498251.7960016982</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>26.4</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19517,12 +20041,14 @@
         <v>-508423.2369016982</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>26.6</v>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19534,6 +20060,6 @@
       <c r="M530" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest OGO.xlsx
+++ b/BackTest/2019-11-02 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>551564.3862000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -728,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -5087,7 +5071,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5120,7 +5104,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5153,7 +5137,7 @@
         <v>809635.7646864059</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5186,7 +5170,7 @@
         <v>1002627.644486406</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,7 +5203,7 @@
         <v>973241.1969864059</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5252,7 +5236,7 @@
         <v>991347.2306864059</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5285,7 +5269,7 @@
         <v>950373.1317864059</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5318,7 +5302,7 @@
         <v>847322.2802864059</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5351,7 +5335,7 @@
         <v>673410.8400864059</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5384,7 +5368,7 @@
         <v>690205.1940864059</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5417,7 +5401,7 @@
         <v>690205.1940864059</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5450,7 +5434,7 @@
         <v>691683.344686406</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5483,7 +5467,7 @@
         <v>673871.8784864059</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5549,7 +5533,7 @@
         <v>642642.6602864059</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5582,7 +5566,7 @@
         <v>471786.446086406</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5615,7 +5599,7 @@
         <v>-8805.804513594077</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5648,7 +5632,7 @@
         <v>-232122.4488135941</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5747,7 +5731,7 @@
         <v>118686.8397864059</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5813,7 +5797,7 @@
         <v>361542.4190864059</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5846,7 +5830,7 @@
         <v>473069.9185864059</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5912,7 +5896,7 @@
         <v>157413.7255864059</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +5929,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +5962,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +5995,7 @@
         <v>11201.62588640591</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6028,7 @@
         <v>-99348.6135135941</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7661,14 +7645,10 @@
         <v>-876364.4795090006</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7698,19 +7678,11 @@
         <v>-876364.4795090006</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J221" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7739,19 +7711,11 @@
         <v>-876343.3797090006</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J222" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7783,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7822,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7861,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7900,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7939,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7978,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8017,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8056,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8095,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8134,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8173,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8212,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8251,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8290,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8329,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8368,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8446,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8485,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8524,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8563,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8602,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8758,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8797,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9265,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9304,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9343,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9382,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9421,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9460,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9499,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9538,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9577,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9616,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9652,19 +9328,11 @@
         <v>-720068.4723885944</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J271" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9693,19 +9361,11 @@
         <v>-716068.4723885944</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J272" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9734,19 +9394,11 @@
         <v>-752954.2845885945</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="J273" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9778,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9817,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9856,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9892,19 +9526,11 @@
         <v>-733100.2269885944</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J277" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9933,19 +9559,11 @@
         <v>-553618.0789885945</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J278" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9974,19 +9592,11 @@
         <v>-527222.0789885945</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J279" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10015,19 +9625,11 @@
         <v>-527222.0789885945</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>28</v>
-      </c>
-      <c r="J280" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10056,19 +9658,11 @@
         <v>-533222.0789885945</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>28</v>
-      </c>
-      <c r="J281" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10100,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10178,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10217,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10295,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10331,19 +9889,11 @@
         <v>-409766.5585885943</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J288" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10375,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10414,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10453,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10492,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10531,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10609,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10648,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10687,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10726,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10804,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10843,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10882,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10918,17 +10384,15 @@
         <v>-467945.7158885943</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J303" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.9</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10957,15 +10421,17 @@
         <v>-342106.2185885943</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J304" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -11000,7 +10466,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11039,7 +10505,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11078,7 +10544,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11117,7 +10583,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11156,7 +10622,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11195,7 +10661,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11234,7 +10700,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11273,7 +10739,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11312,7 +10778,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11351,7 +10817,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11390,7 +10856,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11429,7 +10895,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11468,7 +10934,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11507,7 +10973,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11546,7 +11012,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11585,7 +11051,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11624,7 +11090,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11663,7 +11129,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11702,7 +11168,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11741,7 +11207,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11780,7 +11246,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11819,7 +11285,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11858,7 +11324,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11897,7 +11363,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11936,7 +11402,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11975,7 +11441,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12014,7 +11480,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12053,7 +11519,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12092,7 +11558,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12131,7 +11597,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12170,7 +11636,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12209,7 +11675,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12248,7 +11714,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12287,7 +11753,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12326,7 +11792,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12365,7 +11831,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12404,7 +11870,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12443,7 +11909,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12482,7 +11948,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12521,7 +11987,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12560,7 +12026,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12599,7 +12065,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12638,7 +12104,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12677,7 +12143,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12716,7 +12182,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12755,7 +12221,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12794,7 +12260,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12833,7 +12299,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12872,7 +12338,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12911,7 +12377,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12950,7 +12416,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12989,7 +12455,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13028,7 +12494,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13063,13 +12529,11 @@
         <v>-530729.8207885943</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13104,13 +12568,11 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13145,13 +12607,11 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13186,13 +12646,11 @@
         <v>-552186.1583885943</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13227,13 +12685,11 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13268,13 +12724,11 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13309,13 +12763,11 @@
         <v>-562186.1583885943</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13350,13 +12802,11 @@
         <v>-619836.9157885943</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13391,13 +12841,11 @@
         <v>-619826.9157885943</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13436,7 +12884,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13475,7 +12923,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13514,7 +12962,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13553,7 +13001,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13592,7 +13040,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13627,13 +13075,11 @@
         <v>-705044.3710885942</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13674,7 +13120,7 @@
         <v>26.5</v>
       </c>
       <c r="J373" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13709,13 +13155,11 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13756,7 +13200,7 @@
         <v>26.3</v>
       </c>
       <c r="J375" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13797,7 +13241,7 @@
         <v>26.3</v>
       </c>
       <c r="J376" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13838,7 +13282,7 @@
         <v>26.1</v>
       </c>
       <c r="J377" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13879,7 +13323,7 @@
         <v>26.5</v>
       </c>
       <c r="J378" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13920,7 +13364,7 @@
         <v>26.1</v>
       </c>
       <c r="J379" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13961,7 +13405,7 @@
         <v>26.1</v>
       </c>
       <c r="J380" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14002,7 +13446,7 @@
         <v>26.6</v>
       </c>
       <c r="J381" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14043,7 +13487,7 @@
         <v>26</v>
       </c>
       <c r="J382" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14084,7 +13528,7 @@
         <v>25.9</v>
       </c>
       <c r="J383" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14125,7 +13569,7 @@
         <v>25.8</v>
       </c>
       <c r="J384" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14166,7 +13610,7 @@
         <v>26.2</v>
       </c>
       <c r="J385" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14207,7 +13651,7 @@
         <v>26.2</v>
       </c>
       <c r="J386" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14248,7 +13692,7 @@
         <v>26.2</v>
       </c>
       <c r="J387" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14289,7 +13733,7 @@
         <v>25.8</v>
       </c>
       <c r="J388" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14330,7 +13774,7 @@
         <v>25.8</v>
       </c>
       <c r="J389" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14371,7 +13815,7 @@
         <v>25.8</v>
       </c>
       <c r="J390" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14412,7 +13856,7 @@
         <v>25.8</v>
       </c>
       <c r="J391" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14453,7 +13897,7 @@
         <v>25.8</v>
       </c>
       <c r="J392" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14494,7 +13938,7 @@
         <v>26.1</v>
       </c>
       <c r="J393" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14535,7 +13979,7 @@
         <v>25.9</v>
       </c>
       <c r="J394" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14576,7 +14020,7 @@
         <v>25.9</v>
       </c>
       <c r="J395" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14617,7 +14061,7 @@
         <v>26.1</v>
       </c>
       <c r="J396" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14658,7 +14102,7 @@
         <v>25.8</v>
       </c>
       <c r="J397" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14699,7 +14143,7 @@
         <v>25.8</v>
       </c>
       <c r="J398" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14740,7 +14184,7 @@
         <v>25.8</v>
       </c>
       <c r="J399" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14781,7 +14225,7 @@
         <v>26.3</v>
       </c>
       <c r="J400" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14816,13 +14260,11 @@
         <v>-726577.8332319905</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14857,13 +14299,11 @@
         <v>-726577.8332319905</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14898,13 +14338,11 @@
         <v>-706577.8332319905</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14943,7 +14381,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14982,7 +14420,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15017,13 +14455,11 @@
         <v>-713470.4001319904</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15058,13 +14494,11 @@
         <v>-713470.4001319904</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15103,7 +14537,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15142,7 +14576,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15177,13 +14611,11 @@
         <v>-713460.4001319904</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15222,7 +14654,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15257,13 +14689,11 @@
         <v>-777437.5278319904</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15298,13 +14728,11 @@
         <v>-766296.9575319904</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15339,13 +14767,11 @@
         <v>-796989.5475319903</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15380,13 +14806,11 @@
         <v>-847248.2487319903</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15421,13 +14845,11 @@
         <v>-847248.2487319903</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15462,13 +14884,11 @@
         <v>-893136.6267940059</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15503,13 +14923,11 @@
         <v>-901038.4675940059</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15550,7 +14968,7 @@
         <v>25.5</v>
       </c>
       <c r="J419" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15591,7 +15009,7 @@
         <v>25.4</v>
       </c>
       <c r="J420" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15632,7 +15050,7 @@
         <v>25.3</v>
       </c>
       <c r="J421" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15673,7 +15091,7 @@
         <v>25.3</v>
       </c>
       <c r="J422" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15714,7 +15132,7 @@
         <v>25.4</v>
       </c>
       <c r="J423" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15755,7 +15173,7 @@
         <v>25.5</v>
       </c>
       <c r="J424" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15796,7 +15214,7 @@
         <v>25.5</v>
       </c>
       <c r="J425" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15837,7 +15255,7 @@
         <v>25.6</v>
       </c>
       <c r="J426" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15878,7 +15296,7 @@
         <v>25.9</v>
       </c>
       <c r="J427" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15913,13 +15331,11 @@
         <v>-683397.0518940059</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15954,13 +15370,11 @@
         <v>-702512.8201940058</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15995,13 +15409,11 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16036,13 +15448,11 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16077,13 +15487,11 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16118,13 +15526,11 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16159,13 +15565,11 @@
         <v>-794495.3103940058</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16200,13 +15604,11 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16241,13 +15643,11 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16282,13 +15682,11 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16323,13 +15721,11 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16364,13 +15760,11 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16405,13 +15799,11 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16446,13 +15838,11 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16487,13 +15877,11 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16528,13 +15916,11 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16569,13 +15955,11 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16610,13 +15994,11 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16651,13 +16033,11 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16692,13 +16072,11 @@
         <v>-802240.8563940059</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16733,13 +16111,11 @@
         <v>-839142.835194006</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16780,7 +16156,7 @@
         <v>25.7</v>
       </c>
       <c r="J449" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16821,7 +16197,7 @@
         <v>25.9</v>
       </c>
       <c r="J450" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16862,7 +16238,7 @@
         <v>26.2</v>
       </c>
       <c r="J451" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16897,13 +16273,11 @@
         <v>-796892.835194006</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16938,13 +16312,11 @@
         <v>-814725.926494006</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16979,13 +16351,11 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17020,13 +16390,11 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17061,13 +16429,11 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17102,13 +16468,11 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17143,13 +16507,11 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17184,13 +16546,11 @@
         <v>-821119.2671940059</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17225,13 +16585,11 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17266,13 +16624,11 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17307,13 +16663,11 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17348,13 +16702,11 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17389,13 +16741,11 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17430,13 +16780,11 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17471,13 +16819,11 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17512,13 +16858,11 @@
         <v>-772307.8999940059</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17553,13 +16897,11 @@
         <v>-772530.8999940059</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17594,13 +16936,11 @@
         <v>-771545.8999940059</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17635,13 +16975,11 @@
         <v>-678188.4114940059</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17676,13 +17014,11 @@
         <v>-683876.6939940059</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17717,13 +17053,11 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17758,13 +17092,11 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17799,13 +17131,11 @@
         <v>-677966.6939940059</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17840,13 +17170,11 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17881,13 +17209,11 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17922,13 +17248,11 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17963,13 +17287,11 @@
         <v>-723454.1223940059</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18004,13 +17326,11 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18045,13 +17365,11 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18086,13 +17404,11 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18127,13 +17443,11 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18168,13 +17482,11 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18209,13 +17521,11 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18250,13 +17560,11 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18291,13 +17599,11 @@
         <v>-712748.3147016981</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18332,13 +17638,11 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18373,13 +17677,11 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18414,13 +17716,11 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18455,13 +17755,11 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18496,13 +17794,11 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18541,7 +17837,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18580,7 +17876,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18615,13 +17911,11 @@
         <v>-678735.3147016981</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18656,13 +17950,11 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18697,13 +17989,11 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18738,13 +18028,11 @@
         <v>-657411.5497016981</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18783,7 +18071,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18822,7 +18110,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18861,7 +18149,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18900,7 +18188,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18939,7 +18227,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18978,7 +18266,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19017,7 +18305,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19056,7 +18344,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19095,7 +18383,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19134,7 +18422,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19173,7 +18461,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19212,7 +18500,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19251,7 +18539,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19290,7 +18578,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19329,7 +18617,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19368,7 +18656,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19407,7 +18695,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19446,7 +18734,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19485,7 +18773,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19524,7 +18812,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19563,7 +18851,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19602,7 +18890,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19641,7 +18929,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19680,7 +18968,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19715,13 +19003,11 @@
         <v>-496930.5312016982</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19760,7 +19046,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19795,13 +19081,11 @@
         <v>-497725.6860016982</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19836,13 +19120,11 @@
         <v>-497715.6860016982</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19877,13 +19159,11 @@
         <v>-497715.6860016982</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19918,13 +19198,11 @@
         <v>-498261.7960016982</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19959,13 +19237,11 @@
         <v>-498261.7960016982</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20000,13 +19276,11 @@
         <v>-498251.7960016982</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20041,13 +19315,11 @@
         <v>-508423.2369016982</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20060,6 +19332,6 @@
       <c r="M530" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest OGO.xlsx
+++ b/BackTest/2019-11-02 BackTest OGO.xlsx
@@ -4972,7 +4972,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>118686.8397864059</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>361542.4190864059</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>473069.9185864059</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>157413.7255864059</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>11201.62588640591</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-99348.6135135941</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -10384,14 +10384,10 @@
         <v>-467945.7158885943</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J303" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10421,3776 +10417,3158 @@
         <v>-342106.2185885943</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>27</v>
+      </c>
+      <c r="C305" t="n">
+        <v>27</v>
+      </c>
+      <c r="D305" t="n">
+        <v>27</v>
+      </c>
+      <c r="E305" t="n">
+        <v>27</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1592.8918</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-343699.1103885943</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
         <v>26.9</v>
       </c>
-      <c r="J304" t="n">
+      <c r="C306" t="n">
         <v>26.9</v>
       </c>
-      <c r="K304" t="inlineStr">
+      <c r="D306" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E306" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F306" t="n">
+        <v>34885.8122</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-378584.9225885943</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C307" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D307" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F307" t="n">
+        <v>43050.3311</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-421635.2536885943</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C308" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E308" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F308" t="n">
+        <v>62902.5</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-358732.7536885943</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-359732.7536885943</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C310" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D310" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E310" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F310" t="n">
+        <v>400</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-359332.7536885943</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C311" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E311" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>18587.3605</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-359332.7536885943</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C312" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D312" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2278.7776</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-359332.7536885943</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C313" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E313" t="n">
+        <v>27</v>
+      </c>
+      <c r="F313" t="n">
+        <v>103890.7862</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-359332.7536885943</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>27</v>
+      </c>
+      <c r="D314" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>27</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-361332.7536885943</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>27</v>
+      </c>
+      <c r="F315" t="n">
+        <v>35.9477</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-361296.8059885943</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C316" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D316" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E316" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>13472.6801</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-347824.1258885943</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C317" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D317" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E317" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F317" t="n">
+        <v>6527.3199</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-347824.1258885943</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C318" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D318" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F318" t="n">
+        <v>91076.9669</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-438901.0927885943</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C319" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D319" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E319" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F319" t="n">
+        <v>10028.5356</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-438901.0927885943</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C320" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D320" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E320" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F320" t="n">
+        <v>162.7838827838828</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-438738.3089058104</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C321" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D321" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E321" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F321" t="n">
+        <v>51964.31931721612</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-386773.9895885943</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C322" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D322" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E322" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F322" t="n">
+        <v>23068.3291</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-409842.3186885943</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D323" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>10</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-409832.3186885943</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C324" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D324" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F324" t="n">
+        <v>12967.8599</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-422800.1785885943</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C325" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E325" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-420800.1785885943</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C326" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F326" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-414800.1785885943</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C327" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D327" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-414800.1785885943</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C328" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E328" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>17993.5278</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-396806.6507885943</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D329" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2532.6083</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-394274.0424885942</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D330" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E330" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F330" t="n">
+        <v>9516.967500000001</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-394274.0424885942</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E331" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F331" t="n">
+        <v>43500</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-437774.0424885942</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C332" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D332" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E332" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-413774.0424885942</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C333" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D333" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E333" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F333" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-413774.0424885942</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C334" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E334" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F334" t="n">
+        <v>24294.991</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-438069.0334885942</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C335" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E335" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F335" t="n">
+        <v>78942.8756</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-438069.0334885942</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C336" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E336" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F336" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-438069.0334885942</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C337" t="n">
+        <v>28</v>
+      </c>
+      <c r="D337" t="n">
+        <v>28</v>
+      </c>
+      <c r="E337" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F337" t="n">
+        <v>9415</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-428654.0334885942</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C338" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D338" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E338" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F338" t="n">
+        <v>4440.3705</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-433094.4039885942</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C339" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D339" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E339" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F339" t="n">
+        <v>100</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-433094.4039885942</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C340" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D340" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E340" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F340" t="n">
+        <v>400</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-433494.4039885942</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C341" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E341" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F341" t="n">
+        <v>83900</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-517394.4039885942</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>27</v>
+      </c>
+      <c r="C342" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E342" t="n">
+        <v>27</v>
+      </c>
+      <c r="F342" t="n">
+        <v>16329.185</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-517394.4039885942</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C343" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E343" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F343" t="n">
+        <v>30479.1605</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-517394.4039885942</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>27</v>
+      </c>
+      <c r="C344" t="n">
+        <v>27</v>
+      </c>
+      <c r="D344" t="n">
+        <v>27</v>
+      </c>
+      <c r="E344" t="n">
+        <v>27</v>
+      </c>
+      <c r="F344" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-522394.4039885942</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>27</v>
+      </c>
+      <c r="C345" t="n">
+        <v>27</v>
+      </c>
+      <c r="D345" t="n">
+        <v>27</v>
+      </c>
+      <c r="E345" t="n">
+        <v>27</v>
+      </c>
+      <c r="F345" t="n">
+        <v>4256</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-522394.4039885942</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>27</v>
+      </c>
+      <c r="C346" t="n">
+        <v>27</v>
+      </c>
+      <c r="D346" t="n">
+        <v>27</v>
+      </c>
+      <c r="E346" t="n">
+        <v>27</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3333</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-522394.4039885942</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>27</v>
+      </c>
+      <c r="C347" t="n">
+        <v>27</v>
+      </c>
+      <c r="D347" t="n">
+        <v>27</v>
+      </c>
+      <c r="E347" t="n">
+        <v>27</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.3009</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-522394.4039885942</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C348" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D348" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E348" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1958.0114</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-524352.4153885943</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C349" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E349" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1172.0398</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-524352.4153885943</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>27</v>
+      </c>
+      <c r="C350" t="n">
+        <v>27</v>
+      </c>
+      <c r="D350" t="n">
+        <v>27</v>
+      </c>
+      <c r="E350" t="n">
+        <v>27</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1559.1722</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-522793.2431885943</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>27</v>
+      </c>
+      <c r="C351" t="n">
+        <v>27</v>
+      </c>
+      <c r="D351" t="n">
+        <v>27</v>
+      </c>
+      <c r="E351" t="n">
+        <v>27</v>
+      </c>
+      <c r="F351" t="n">
+        <v>6518</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-522793.2431885943</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>27</v>
+      </c>
+      <c r="C352" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E352" t="n">
+        <v>27</v>
+      </c>
+      <c r="F352" t="n">
+        <v>9082</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-513711.2431885943</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C353" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>500</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-513211.2431885943</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>27</v>
+      </c>
+      <c r="C354" t="n">
+        <v>27</v>
+      </c>
+      <c r="D354" t="n">
+        <v>27</v>
+      </c>
+      <c r="E354" t="n">
+        <v>27</v>
+      </c>
+      <c r="F354" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-521211.2431885943</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>27</v>
+      </c>
+      <c r="C355" t="n">
+        <v>27</v>
+      </c>
+      <c r="D355" t="n">
+        <v>27</v>
+      </c>
+      <c r="E355" t="n">
+        <v>27</v>
+      </c>
+      <c r="F355" t="n">
+        <v>6597.0259</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-521211.2431885943</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>27</v>
+      </c>
+      <c r="C356" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D356" t="n">
+        <v>27</v>
+      </c>
+      <c r="E356" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F356" t="n">
+        <v>9518.577600000001</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-530729.8207885943</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C357" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D357" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E357" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F357" t="n">
+        <v>71524.4589</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-530729.8207885943</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C358" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D358" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>9161.8141</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-530729.8207885943</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C359" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D359" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F359" t="n">
+        <v>21456.3376</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-552186.1583885943</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C360" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D360" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E360" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F360" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-552186.1583885943</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C361" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D361" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E361" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F361" t="n">
+        <v>104748.996</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-552186.1583885943</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C362" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D362" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E362" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F362" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-562186.1583885943</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C363" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D363" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E363" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F363" t="n">
+        <v>158884.5822</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-562186.1583885943</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C364" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D364" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E364" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F364" t="n">
+        <v>24053.1</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-562186.1583885943</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C365" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D365" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E365" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>57650.7574</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-619836.9157885943</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C366" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D366" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E366" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F366" t="n">
+        <v>10</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-619826.9157885943</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C367" t="n">
+        <v>27</v>
+      </c>
+      <c r="D367" t="n">
+        <v>27</v>
+      </c>
+      <c r="E367" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F367" t="n">
+        <v>56235.3007</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-563591.6150885943</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D368" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E368" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F368" t="n">
+        <v>108587.368</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-672178.9830885943</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C369" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D369" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E369" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F369" t="n">
+        <v>121397.368</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-550781.6150885943</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C370" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D370" t="n">
+        <v>27</v>
+      </c>
+      <c r="E370" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F370" t="n">
+        <v>138762.756</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-689544.3710885942</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C371" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D371" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E371" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F371" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-705044.3710885942</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C372" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D372" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E372" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F372" t="n">
+        <v>17178.60794756554</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-705044.3710885942</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D373" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E373" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F373" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-742044.3710885942</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C374" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E374" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F374" t="n">
+        <v>6859.2651</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-742044.3710885942</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C375" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D375" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E375" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1520.6368</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-742044.3710885942</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C376" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E376" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F376" t="n">
+        <v>3747.2516</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-745791.6226885942</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C377" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D377" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E377" t="n">
+        <v>26</v>
+      </c>
+      <c r="F377" t="n">
+        <v>39985.97025660377</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-705805.6524319904</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C378" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E378" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F378" t="n">
+        <v>665.5</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-706471.1524319904</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C379" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F379" t="n">
+        <v>30690.1015</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-706471.1524319904</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C380" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E380" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F380" t="n">
+        <v>3002</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-703469.1524319904</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>26</v>
+      </c>
+      <c r="C381" t="n">
+        <v>26</v>
+      </c>
+      <c r="D381" t="n">
+        <v>26</v>
+      </c>
+      <c r="E381" t="n">
+        <v>26</v>
+      </c>
+      <c r="F381" t="n">
+        <v>23824.2425</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-727293.3949319904</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C382" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D382" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E382" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F382" t="n">
+        <v>520</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-727813.3949319904</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>26</v>
+      </c>
+      <c r="C383" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D383" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E383" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F383" t="n">
+        <v>49219.7445</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-777033.1394319905</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C384" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D384" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E384" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1000.419</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-776032.7204319905</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C385" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D385" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E385" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5848.581</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-776032.7204319905</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C386" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D386" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E386" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F386" t="n">
+        <v>410.687</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-776032.7204319905</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>26</v>
+      </c>
+      <c r="C387" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D387" t="n">
+        <v>26</v>
+      </c>
+      <c r="E387" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F387" t="n">
+        <v>4509.7763</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-780542.4967319905</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C388" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D388" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E388" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F388" t="n">
+        <v>7458.9081</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-780542.4967319905</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C389" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D389" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E389" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F389" t="n">
+        <v>16782.5433</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-780542.4967319905</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C390" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D390" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E390" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F390" t="n">
+        <v>3217.9124</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-780542.4967319905</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C391" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D391" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E391" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F391" t="n">
+        <v>16362.9797</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-780542.4967319905</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C392" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E392" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F392" t="n">
+        <v>4695.1724</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-775847.3243319904</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C393" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D393" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E393" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F393" t="n">
+        <v>8570.270200000001</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-784417.5945319905</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C394" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D394" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E394" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F394" t="n">
+        <v>266.0171</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-784417.5945319905</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C395" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2976.8199</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-781440.7746319905</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C396" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D396" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E396" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F396" t="n">
+        <v>61987.2058</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-843427.9804319905</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C397" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D397" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E397" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F397" t="n">
+        <v>92025.7018</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-843427.9804319905</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F398" t="n">
+        <v>724</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-843427.9804319905</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J398" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C399" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D399" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E399" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F399" t="n">
+        <v>110458.1472</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-732969.8332319905</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J399" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K399" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>27</v>
-      </c>
-      <c r="C305" t="n">
-        <v>27</v>
-      </c>
-      <c r="D305" t="n">
-        <v>27</v>
-      </c>
-      <c r="E305" t="n">
-        <v>27</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1592.8918</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-343699.1103885943</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C306" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D306" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E306" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F306" t="n">
-        <v>34885.8122</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-378584.9225885943</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C307" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D307" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E307" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F307" t="n">
-        <v>43050.3311</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-421635.2536885943</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C308" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D308" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E308" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F308" t="n">
-        <v>62902.5</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-358732.7536885943</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C309" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E309" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-359732.7536885943</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C310" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D310" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E310" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F310" t="n">
-        <v>400</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-359332.7536885943</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C311" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D311" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E311" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F311" t="n">
-        <v>18587.3605</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-359332.7536885943</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C312" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D312" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E312" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F312" t="n">
-        <v>2278.7776</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-359332.7536885943</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C313" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D313" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E313" t="n">
-        <v>27</v>
-      </c>
-      <c r="F313" t="n">
-        <v>103890.7862</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-359332.7536885943</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C314" t="n">
-        <v>27</v>
-      </c>
-      <c r="D314" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E314" t="n">
-        <v>27</v>
-      </c>
-      <c r="F314" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-361332.7536885943</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C315" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E315" t="n">
-        <v>27</v>
-      </c>
-      <c r="F315" t="n">
-        <v>35.9477</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-361296.8059885943</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C316" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D316" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E316" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F316" t="n">
-        <v>13472.6801</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-347824.1258885943</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C317" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D317" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E317" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F317" t="n">
-        <v>6527.3199</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-347824.1258885943</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C318" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D318" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E318" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F318" t="n">
-        <v>91076.9669</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-438901.0927885943</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C319" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D319" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E319" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F319" t="n">
-        <v>10028.5356</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-438901.0927885943</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C320" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D320" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E320" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F320" t="n">
-        <v>162.7838827838828</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-438738.3089058104</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C321" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D321" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E321" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F321" t="n">
-        <v>51964.31931721612</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-386773.9895885943</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C322" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D322" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E322" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F322" t="n">
-        <v>23068.3291</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-409842.3186885943</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C323" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D323" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E323" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F323" t="n">
-        <v>10</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-409832.3186885943</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C324" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D324" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E324" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F324" t="n">
-        <v>12967.8599</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-422800.1785885943</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C325" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D325" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E325" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F325" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-420800.1785885943</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C326" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D326" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E326" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F326" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-414800.1785885943</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C327" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D327" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E327" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F327" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-414800.1785885943</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C328" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E328" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F328" t="n">
-        <v>17993.5278</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-396806.6507885943</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C329" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D329" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E329" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>2532.6083</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-394274.0424885942</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C330" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D330" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E330" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F330" t="n">
-        <v>9516.967500000001</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-394274.0424885942</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C331" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D331" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E331" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F331" t="n">
-        <v>43500</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-437774.0424885942</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C332" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D332" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E332" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F332" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-413774.0424885942</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C333" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D333" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E333" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F333" t="n">
-        <v>28000</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-413774.0424885942</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C334" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D334" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E334" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F334" t="n">
-        <v>24294.991</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-438069.0334885942</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C335" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D335" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E335" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F335" t="n">
-        <v>78942.8756</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-438069.0334885942</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C336" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D336" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E336" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F336" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-438069.0334885942</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C337" t="n">
-        <v>28</v>
-      </c>
-      <c r="D337" t="n">
-        <v>28</v>
-      </c>
-      <c r="E337" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F337" t="n">
-        <v>9415</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-428654.0334885942</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C338" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D338" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E338" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F338" t="n">
-        <v>4440.3705</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-433094.4039885942</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C339" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D339" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E339" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F339" t="n">
-        <v>100</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-433094.4039885942</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C340" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D340" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E340" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F340" t="n">
-        <v>400</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-433494.4039885942</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C341" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D341" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E341" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F341" t="n">
-        <v>83900</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-517394.4039885942</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>27</v>
-      </c>
-      <c r="C342" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E342" t="n">
-        <v>27</v>
-      </c>
-      <c r="F342" t="n">
-        <v>16329.185</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-517394.4039885942</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="C343" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E343" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="F343" t="n">
-        <v>30479.1605</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-517394.4039885942</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>27</v>
-      </c>
-      <c r="C344" t="n">
-        <v>27</v>
-      </c>
-      <c r="D344" t="n">
-        <v>27</v>
-      </c>
-      <c r="E344" t="n">
-        <v>27</v>
-      </c>
-      <c r="F344" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-522394.4039885942</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>27</v>
-      </c>
-      <c r="C345" t="n">
-        <v>27</v>
-      </c>
-      <c r="D345" t="n">
-        <v>27</v>
-      </c>
-      <c r="E345" t="n">
-        <v>27</v>
-      </c>
-      <c r="F345" t="n">
-        <v>4256</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-522394.4039885942</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>27</v>
-      </c>
-      <c r="C346" t="n">
-        <v>27</v>
-      </c>
-      <c r="D346" t="n">
-        <v>27</v>
-      </c>
-      <c r="E346" t="n">
-        <v>27</v>
-      </c>
-      <c r="F346" t="n">
-        <v>3333</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-522394.4039885942</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>27</v>
-      </c>
-      <c r="C347" t="n">
-        <v>27</v>
-      </c>
-      <c r="D347" t="n">
-        <v>27</v>
-      </c>
-      <c r="E347" t="n">
-        <v>27</v>
-      </c>
-      <c r="F347" t="n">
-        <v>0.3009</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-522394.4039885942</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C348" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D348" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E348" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F348" t="n">
-        <v>1958.0114</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-524352.4153885943</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C349" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D349" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E349" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F349" t="n">
-        <v>1172.0398</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-524352.4153885943</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>27</v>
-      </c>
-      <c r="C350" t="n">
-        <v>27</v>
-      </c>
-      <c r="D350" t="n">
-        <v>27</v>
-      </c>
-      <c r="E350" t="n">
-        <v>27</v>
-      </c>
-      <c r="F350" t="n">
-        <v>1559.1722</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-522793.2431885943</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>27</v>
-      </c>
-      <c r="C351" t="n">
-        <v>27</v>
-      </c>
-      <c r="D351" t="n">
-        <v>27</v>
-      </c>
-      <c r="E351" t="n">
-        <v>27</v>
-      </c>
-      <c r="F351" t="n">
-        <v>6518</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-522793.2431885943</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>27</v>
-      </c>
-      <c r="C352" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D352" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E352" t="n">
-        <v>27</v>
-      </c>
-      <c r="F352" t="n">
-        <v>9082</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-513711.2431885943</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C353" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D353" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E353" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F353" t="n">
-        <v>500</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-513211.2431885943</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>27</v>
-      </c>
-      <c r="C354" t="n">
-        <v>27</v>
-      </c>
-      <c r="D354" t="n">
-        <v>27</v>
-      </c>
-      <c r="E354" t="n">
-        <v>27</v>
-      </c>
-      <c r="F354" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-521211.2431885943</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>27</v>
-      </c>
-      <c r="C355" t="n">
-        <v>27</v>
-      </c>
-      <c r="D355" t="n">
-        <v>27</v>
-      </c>
-      <c r="E355" t="n">
-        <v>27</v>
-      </c>
-      <c r="F355" t="n">
-        <v>6597.0259</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-521211.2431885943</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>27</v>
-      </c>
-      <c r="C356" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D356" t="n">
-        <v>27</v>
-      </c>
-      <c r="E356" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F356" t="n">
-        <v>9518.577600000001</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-530729.8207885943</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C357" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D357" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E357" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F357" t="n">
-        <v>71524.4589</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-530729.8207885943</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C358" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D358" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E358" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F358" t="n">
-        <v>9161.8141</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-530729.8207885943</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C359" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D359" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E359" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F359" t="n">
-        <v>21456.3376</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-552186.1583885943</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C360" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D360" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E360" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F360" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-552186.1583885943</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C361" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D361" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E361" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F361" t="n">
-        <v>104748.996</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-552186.1583885943</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C362" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D362" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E362" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F362" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-562186.1583885943</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C363" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D363" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E363" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F363" t="n">
-        <v>158884.5822</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-562186.1583885943</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C364" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D364" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E364" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F364" t="n">
-        <v>24053.1</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-562186.1583885943</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C365" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D365" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E365" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F365" t="n">
-        <v>57650.7574</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-619836.9157885943</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C366" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D366" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E366" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F366" t="n">
-        <v>10</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-619826.9157885943</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C367" t="n">
-        <v>27</v>
-      </c>
-      <c r="D367" t="n">
-        <v>27</v>
-      </c>
-      <c r="E367" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F367" t="n">
-        <v>56235.3007</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-563591.6150885943</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C368" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D368" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E368" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F368" t="n">
-        <v>108587.368</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-672178.9830885943</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C369" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D369" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E369" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F369" t="n">
-        <v>121397.368</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-550781.6150885943</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C370" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D370" t="n">
-        <v>27</v>
-      </c>
-      <c r="E370" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F370" t="n">
-        <v>138762.756</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-689544.3710885942</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C371" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D371" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E371" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F371" t="n">
-        <v>15500</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-705044.3710885942</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C372" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D372" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E372" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F372" t="n">
-        <v>17178.60794756554</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-705044.3710885942</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C373" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D373" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E373" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F373" t="n">
-        <v>37000</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-742044.3710885942</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J373" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C374" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D374" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E374" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F374" t="n">
-        <v>6859.2651</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-742044.3710885942</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C375" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D375" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E375" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F375" t="n">
-        <v>1520.6368</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-742044.3710885942</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J375" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C376" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D376" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E376" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F376" t="n">
-        <v>3747.2516</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-745791.6226885942</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J376" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C377" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D377" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E377" t="n">
-        <v>26</v>
-      </c>
-      <c r="F377" t="n">
-        <v>39985.97025660377</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-705805.6524319904</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J377" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C378" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D378" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E378" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F378" t="n">
-        <v>665.5</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-706471.1524319904</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J378" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C379" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D379" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E379" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F379" t="n">
-        <v>30690.1015</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-706471.1524319904</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J379" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C380" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D380" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E380" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F380" t="n">
-        <v>3002</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-703469.1524319904</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J380" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>26</v>
-      </c>
-      <c r="C381" t="n">
-        <v>26</v>
-      </c>
-      <c r="D381" t="n">
-        <v>26</v>
-      </c>
-      <c r="E381" t="n">
-        <v>26</v>
-      </c>
-      <c r="F381" t="n">
-        <v>23824.2425</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-727293.3949319904</v>
-      </c>
-      <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J381" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C382" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D382" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E382" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F382" t="n">
-        <v>520</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-727813.3949319904</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>26</v>
-      </c>
-      <c r="J382" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>26</v>
-      </c>
-      <c r="C383" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D383" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E383" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F383" t="n">
-        <v>49219.7445</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-777033.1394319905</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J383" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C384" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D384" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E384" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1000.419</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-776032.7204319905</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J384" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C385" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D385" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E385" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F385" t="n">
-        <v>5848.581</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-776032.7204319905</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J385" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C386" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D386" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E386" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F386" t="n">
-        <v>410.687</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-776032.7204319905</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J386" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>26</v>
-      </c>
-      <c r="C387" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D387" t="n">
-        <v>26</v>
-      </c>
-      <c r="E387" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F387" t="n">
-        <v>4509.7763</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-780542.4967319905</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J387" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C388" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D388" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E388" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F388" t="n">
-        <v>7458.9081</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-780542.4967319905</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J388" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C389" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D389" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E389" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F389" t="n">
-        <v>16782.5433</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-780542.4967319905</v>
-      </c>
-      <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J389" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C390" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D390" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E390" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F390" t="n">
-        <v>3217.9124</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-780542.4967319905</v>
-      </c>
-      <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J390" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C391" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D391" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E391" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F391" t="n">
-        <v>16362.9797</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-780542.4967319905</v>
-      </c>
-      <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J391" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C392" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D392" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E392" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F392" t="n">
-        <v>4695.1724</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-775847.3243319904</v>
-      </c>
-      <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J392" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C393" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D393" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E393" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F393" t="n">
-        <v>8570.270200000001</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-784417.5945319905</v>
-      </c>
-      <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J393" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C394" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D394" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E394" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F394" t="n">
-        <v>266.0171</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-784417.5945319905</v>
-      </c>
-      <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J394" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C395" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D395" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E395" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F395" t="n">
-        <v>2976.8199</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-781440.7746319905</v>
-      </c>
-      <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J395" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C396" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D396" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E396" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F396" t="n">
-        <v>61987.2058</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-843427.9804319905</v>
-      </c>
-      <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J396" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C397" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D397" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E397" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F397" t="n">
-        <v>92025.7018</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-843427.9804319905</v>
-      </c>
-      <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J397" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C398" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D398" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E398" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F398" t="n">
-        <v>724</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-843427.9804319905</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J398" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C399" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D399" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E399" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F399" t="n">
-        <v>110458.1472</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-732969.8332319905</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J399" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14219,13 +13597,11 @@
         <v>-726477.8332319905</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14264,7 +13640,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14303,7 +13679,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14342,7 +13718,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14381,7 +13757,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14420,7 +13796,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14459,7 +13835,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14498,7 +13874,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14537,7 +13913,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14576,7 +13952,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14615,7 +13991,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14654,7 +14030,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14693,7 +14069,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14732,7 +14108,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14771,7 +14147,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14810,7 +14186,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14849,7 +14225,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14888,7 +14264,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14923,11 +14299,13 @@
         <v>-901038.4675940059</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J418" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14968,7 +14346,7 @@
         <v>25.5</v>
       </c>
       <c r="J419" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15009,7 +14387,7 @@
         <v>25.4</v>
       </c>
       <c r="J420" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15050,7 +14428,7 @@
         <v>25.3</v>
       </c>
       <c r="J421" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15091,7 +14469,7 @@
         <v>25.3</v>
       </c>
       <c r="J422" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15132,7 +14510,7 @@
         <v>25.4</v>
       </c>
       <c r="J423" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15173,7 +14551,7 @@
         <v>25.5</v>
       </c>
       <c r="J424" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15214,7 +14592,7 @@
         <v>25.5</v>
       </c>
       <c r="J425" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15255,7 +14633,7 @@
         <v>25.6</v>
       </c>
       <c r="J426" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15296,7 +14674,7 @@
         <v>25.9</v>
       </c>
       <c r="J427" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15331,11 +14709,13 @@
         <v>-683397.0518940059</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>26</v>
+      </c>
       <c r="J428" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15370,11 +14750,13 @@
         <v>-702512.8201940058</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J429" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15409,11 +14791,13 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J430" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15448,11 +14832,13 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J431" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15487,11 +14873,13 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J432" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15526,11 +14914,13 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J433" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15565,11 +14955,13 @@
         <v>-794495.3103940058</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J434" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15604,11 +14996,13 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J435" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15643,11 +15037,13 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J436" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15682,11 +15078,13 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J437" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15721,11 +15119,13 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J438" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15760,11 +15160,13 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J439" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15799,11 +15201,13 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J440" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15838,11 +15242,13 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J441" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15877,11 +15283,13 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J442" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15916,11 +15324,13 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J443" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15955,11 +15365,13 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J444" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15994,11 +15406,13 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J445" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16033,11 +15447,13 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J446" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16072,11 +15488,13 @@
         <v>-802240.8563940059</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J447" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16111,11 +15529,13 @@
         <v>-839142.835194006</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J448" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16156,7 +15576,7 @@
         <v>25.7</v>
       </c>
       <c r="J449" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16197,7 +15617,7 @@
         <v>25.9</v>
       </c>
       <c r="J450" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16238,7 +15658,7 @@
         <v>26.2</v>
       </c>
       <c r="J451" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16273,11 +15693,13 @@
         <v>-796892.835194006</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J452" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16312,11 +15734,13 @@
         <v>-814725.926494006</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J453" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16351,11 +15775,13 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J454" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16390,11 +15816,13 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J455" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16429,11 +15857,13 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J456" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16468,11 +15898,13 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J457" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16507,11 +15939,13 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J458" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16546,11 +15980,13 @@
         <v>-821119.2671940059</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J459" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16585,11 +16021,13 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J460" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16624,11 +16062,13 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J461" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16663,11 +16103,13 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J462" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16702,11 +16144,13 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J463" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16741,11 +16185,13 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J464" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16780,11 +16226,13 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J465" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16819,11 +16267,13 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J466" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16858,11 +16308,13 @@
         <v>-772307.8999940059</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J467" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16897,11 +16349,13 @@
         <v>-772530.8999940059</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J468" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16936,11 +16390,13 @@
         <v>-771545.8999940059</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>26</v>
+      </c>
       <c r="J469" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16975,11 +16431,13 @@
         <v>-678188.4114940059</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J470" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17014,11 +16472,13 @@
         <v>-683876.6939940059</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J471" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17053,11 +16513,13 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J472" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17092,11 +16554,13 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J473" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17131,11 +16595,13 @@
         <v>-677966.6939940059</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J474" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17170,11 +16636,13 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J475" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17209,11 +16677,13 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>26</v>
+      </c>
       <c r="J476" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17248,11 +16718,13 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>26</v>
+      </c>
       <c r="J477" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17287,11 +16759,13 @@
         <v>-723454.1223940059</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>26</v>
+      </c>
       <c r="J478" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17326,11 +16800,13 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J479" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17365,11 +16841,13 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>26</v>
+      </c>
       <c r="J480" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17404,11 +16882,13 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>26</v>
+      </c>
       <c r="J481" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17443,11 +16923,13 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>26</v>
+      </c>
       <c r="J482" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17482,11 +16964,13 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>26</v>
+      </c>
       <c r="J483" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17521,11 +17005,13 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J484" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17560,11 +17046,13 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J485" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17599,11 +17087,13 @@
         <v>-712748.3147016981</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J486" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17638,11 +17128,13 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>26</v>
+      </c>
       <c r="J487" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17677,11 +17169,13 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J488" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17716,11 +17210,13 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J489" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17755,11 +17251,13 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J490" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17794,11 +17292,13 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J491" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17833,11 +17333,13 @@
         <v>-609242.5057016981</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J492" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17872,11 +17374,13 @@
         <v>-667211.2478016982</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J493" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17911,11 +17415,13 @@
         <v>-678735.3147016981</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J494" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17950,11 +17456,13 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J495" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17989,11 +17497,13 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J496" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18028,11 +17538,13 @@
         <v>-657411.5497016981</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J497" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18067,11 +17579,13 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J498" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18106,11 +17620,13 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J499" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18145,11 +17661,13 @@
         <v>-661729.0252016982</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J500" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18184,11 +17702,13 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J501" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18223,11 +17743,13 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J502" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18266,7 +17788,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18305,7 +17827,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18344,7 +17866,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18383,7 +17905,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18422,7 +17944,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18461,7 +17983,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18500,7 +18022,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18539,7 +18061,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18578,7 +18100,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18617,7 +18139,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18656,7 +18178,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18695,7 +18217,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18734,7 +18256,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18773,7 +18295,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18812,7 +18334,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18851,7 +18373,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18890,7 +18412,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18929,7 +18451,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18968,7 +18490,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19007,7 +18529,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19046,7 +18568,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19085,7 +18607,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19124,7 +18646,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19163,7 +18685,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19202,7 +18724,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19241,7 +18763,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19280,7 +18802,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19319,7 +18841,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
